--- a/app/src/data/resultat.xlsx
+++ b/app/src/data/resultat.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja de datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,138 +434,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Token</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Updated</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>MD5</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>d381a66c69716a65835c53dec742e286</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>tags: Duplicate value provided for tag.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5ecf30b7a6221af8f209a7b6681f91f9</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'md5' and value: '5ecf30b7a6221af8f209a7b6681f91f9' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8541998a8513dcc7cf0cf5a36b55f7fd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>tags: Duplicate value provided for tag.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>56580e7ba6bf26d878c538985a6dc62ca094cd04</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Domain</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>hm2.yrnykx.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'domain' and value: 'hm2.yrnykx.com' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://27.1.1.34:8080/docs/s/wi.txt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>eca9fac6848545ff9386176773810f96323feff0d575c4b6e1c55f8db842e7fe</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'eca9fac6848545ff9386176773810f96323feff0d575c4b6e1c55f8db842e7fe' combination.</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Not found in CrowdStrike</t>
         </is>
       </c>
     </row>

--- a/app/src/data/resultat.xlsx
+++ b/app/src/data/resultat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Updated</t>
+          <t>Added</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>d381a66c69716a65835c53dec742e286</t>
+          <t>d767524e1bbb8d50129485ffa667eb1d379c745c30d4588672636998c20f857f</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,5332 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not found in CrowdStrike</t>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6F7F33619DAA8226B9D17BCF4972B77AC448B8B11E394B9633CD4177434CF24F</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5ac485d60fe2c096b10cda2624588427928e3f0d</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C677A79B853D3858F8C8B86CCD8C76EBBD1508CC9550F1DA2D30BE491625B744</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>newdoc-lnpye.ondigitalocean.app</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Domain wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>c3e5d4e62ae4eca2bfca22f8f3c8cbec12757f78107e91e85404611548e06e40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>b6b9d449c9416abf96d21b356a41a28e</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cefea76dfdbb48cfe1a3db2c8df34e898e29bec9b2c13e79ef40655c637833ae</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECCCC46FED8442F0B7121A83EF40CA7A35C744B9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3d7cf20ca6476e14e0a026f9bdd8ff1f26995cdc5854c3adb41a6135ef11ba83</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4D1C957652A19DA9F1127F5B87616426</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ccde3fe374a219ed3a85a0bf548542c3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>http://satkas.waw.pl/rainloop/forecast</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0b6ef1e650df35e2d04c56ebfcceabc7</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>68E40E5A01EB9BC4232A20049B6FDC6D</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1241B9486D3D7C74C0BB1F2A7BDD81FF9597B2C92F2AF8A5B3819B296C400336</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3a08e3bfec2db5dbece359ac9662e65361a8625a0122e68b56cd5ef3aedf8ce1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>aea5d3cced6725f37e2c3797735e6467</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lm-career.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Domain wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1326932d63485e299ba8e03bfcd23057f7897c3ae0d26ed1235c4fb108adb105</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cda37b13d1fdee1b4262b5a6146a35d8fc88fa572e55437a47a950037cc65d40</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A2ECA6FEABF08730BD6D09E2C208CBC5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>EC55A5CDA8F7990B89070F60D5C8FF26</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1A3C935784376EDD36D7D486307DF5F628841EE49189DBAF643D21D00A84CEF3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>d7a7fd3a7e3501114fd0049457f5ce09</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0c7215c4325ded8139ea2f0428412f17e6c8f957</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>79920B220CCB05DE0AFE14F527574A53EA0AA7A9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3C174A5F255C6E46A8C051CF471E27374D816A4E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8917af3878fa49fe4ec930230b881ff0ae8d19c9</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3B5477B88122B938BA6C437D35864D666C470D08</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>206159F87A621F278D884539B21E1EBABCF7C250E94935D5BA72F5B25D3EB777</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2D82FD4218BC53E0F021AAD017362B25</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A27A9324D282D920E495832933D486EE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>aae77d41eba652683f3ae114fadec279d5759052d2d774f149f3055bf40c4c14</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>c1187fe0eaddee995773d6c66bcb558536e9b62c</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>766ABA5C62197F390BFFABDC78B7581F</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F3B17523EF01CCF96FAA276EC78F774831D9747F1E8EFFAC902C04EC51408CC5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D67BD08E03A5E2054AAE8458B0C549CEC2F988A9E703D3ED755626D840990A0E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>324c6626ab70399ef9864542ddbeedfb8fbddfb5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>173c4085c23080d9fb19280cc507d28d</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A0989EC9AD1B74C5E8DEDCA4A02DCBB06ABDD86EC05D1712BFC560BF209E3B39</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>dc963d8beb490d00261280dc5a9bc9cc700da602</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1af1ca666e48afc933e2eda0ae1d6e88ebd23d27c54fd1d882161fd8c70b678e</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2a53525eeb7b76b3d1bfe40ac349446f2add8784</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F38ABB67D47A4F69536AE67AA9C6DF7287C08869</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F14B1A91ED1ECD365088BA6DE5846788F86689C6C2F2182855D5E0954D62AF3B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>be8c5d07ab6e39db28c40db20a32f47a97b7ec9f26c9003f9101a154a5a98486</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>c6901bc6720e1e30c6c2e89aae874a90</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2A3AA1166DB1BF391AA212F3C9985FC8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>markettrendingcenter[.]com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>a854c960cde68d43fd42a24e79587b28</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>a8fd52bd107f7b62483c11c15923fbd2256c8bac</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>660E60CC1FD3E155017848A1F6BEFC4A335825A6AE04F3416B9B148FF156D143</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>6ED412F07F623ED1D3ED04B9D4D1169A1268B1BA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>92ed8739cfb9132c8b57016e3c071a28</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>74845c914cc9525604ff06212f50b99386240183</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A59A5158931001CE3A77DB97AEAFE740</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>87A1EB14FC7AAAA4823A7035F3E01516</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>e17dc8062742878b0b5ced2145311929f6f77abd</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5bdc0fb5cfbd42de726aacc40eddca034b5fa4afcc88ddfb40a3d9ae18672898</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>70b8bc74f381c9d7d1016006c3950f85</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2pop.ddns.net</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Domain wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>a186c08d3d10885ebb129b1a0d8ea0da056fc362</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>28E864A8A296CE19668922A886529A24</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>8AFE25F8CB690F45B0BC154C38A56162</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2cf54942e8cf0ef6296deaa7975618dadff0c32535295d3f0d5f577552229ffc</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4168465b8ab7a84c1b6cfff871e3defb</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>newopt.servehttp.com</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Domain wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>11B5944715DA95E4A57EA54968439D955114088222FD2032D4E0282D12A58ABB</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vm-srv-1[.]gel[.]ulaval[.]ca</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>8e1f22dd9e809ead5e19b340b0c80cae</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>fd0d6046d6e3096bd38df9aa539d4b5502db9f85</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>7154fdb1ef9044da59fcfdbdd1ed9abc1a594cacb41a0aeddb5cd9fdaeea5ea8</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>6116a5b0c0b6c147a2c715aad2eb1cd082941715</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>5c6ca5581a04955d8e4d1fa452621fbc922ecb7b</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>F7A3F1DB525017D0C2D1533AD6903CF44E0D0E07</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>9D18DEFE7390C59A1473F79A2407D072A3F365DE9834B8D8BE25F7E35A76D818</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>f8c08d00ff6e8c6adb1a93cd133b19302d0b651afd73ccb54e3b6ac6c60d99c6</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>c5181892afde538c73109b4c83e2a2730eb9014d</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>f466b4d686d1fa9fed064507639b9306b0d80bbf</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>9802a1e8fb425ac3a7c0a7fca5a17cfcb7f3f5f0962deb29e3982f0bece95e26</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2AD24B1205BCDE3BFABE279DD3D881F1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>9f6876762614e407d0ee6005f165dd4bbd12cb21986abc4a3a5c7dc6271fcdc3</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>C124AFE619E92B9BF9FCBB6D551DBC0E</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>13828b390d5f58b002e808c2c4f02fdd920e236cc8015480fa33b6c1a9300e31</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ce5540c0d2c54489737f3fefdbf72c889ac533a9</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>362aa21546904629b28a56c9d5c4bfd3b53296f5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>085b8046d0c3958d78751b6825052d66</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>9146a448463935b47e29155da74c68d16e0d7031</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>28d7e6fe31dc00f82cb032ba29aad6429837ba5efb83c2ce4d31d565896e1169</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>730bd2385c3fc6d2bee48c0a9bcb373c</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>221c91c48390a941b381fb5cd6df60df</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>89060eff6db13e7455fee151205e972260e9522a</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>201D8BD6FA2BBD4CEC0FB059D3C9E37426C2866A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>7145A440BBF662CC1DE104770036A4D5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>783b2b053ef0345710cd2487e5184f29116e367c</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>9c54d3b2a64d92bca577a12b70d8d29a</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A4565FBB5570C30085FB77C674B4F1B7D069BDD2350747304EFC911C905C3E31</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>f7a038f9b91c40e9d67f4168997d7d8c12c2d27cd9e36c413dd021796a24e083</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2587001d6599f0ec03534ea823aab0febb75e83f657fadc3a662338cc08646b0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>C484B7F3EB8C79C87ACA222BEE354982512E0E86</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>7E303AF8C686A0C98FA87A34DE1FFCF08F64A093</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>4373cf0d42926b15f95e35683d883a1c</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>lm-career[.]com</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5121f08cf8614a65d7a86c2f462c0694c132e2877a7f54ab7fcefd7ee5235a42</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>fe16fa500584cb241532dc7cb75c1f53</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>d5d4dd13900a1fef828d4a0193ce05a2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>38834b796ed025563774167716a477e9217d45e47def20facb027325f2a790d1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>da1e4a09a59565c5d62887e0e9a9f6f04a18b5f4</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>8A67BB1E9EB625935B02C504DD4FCED1D12F0B4B7784EEAF0BD94E1C741EE99A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>newdoc-lnpye.ondigitalocean.app</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>843001980e5073c7f0ea8b56873246b8</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>E4AD32AA6D0F839342FC22B71530F04A4AB756E15F35707654828360FBD0AEEF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3E163EE535052192EDAC6DDB29D2B6A15A240C7C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>769fdda466dcd97eb8a7a99c958d460e</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>c8b3b67ea4d7625f8b37ba59eed5c9406b3ef04b7a19b97e5dd5dab1bd59f283</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ed075c4718fd98efcbc845db00677065</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>7b2449bb8be1b37a9d580c2592a67a759a3116fe640041d0f36dc93ca3db4487</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>75B4AB33E788181C36CFDE764254E9E7C4D1A981B7832BBC60009FCDEC7F586C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>18A352D33C8C01B6A196ADCE176C5A96</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>731adcf2d7fb61a8335e23dbee2436249e5d5753977ec465754c6b699e9bf161</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4e18f9293a6a72d5d42dad179b532407f45663098f959ea552ae43dbb9725cbf</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>e69cb001797f1948c490fa165e1cc077</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>c681038bc738ff0a816176c4cd21150c</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>68099e389d48e23e66f92fe9bf328a01</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>825F5631EC36C5811ED91170F8C0E0A57BFAAEE4</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>55F4D7297800A4A4142BE065E1674229CB1B120E8ADE7B4FF7938AFFCFDB85C6</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>722f1c1527b2c788746fec4dd1af70b0c703644336909735f8f23f6ef265784b</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>294690C1AEE8DC7723858DAFCB2A0ED273296641</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0160375E19E606D06F672BE6E43F70FA70093D2A30031AFFD2929A5C446D07C1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>77413cb3f469d00d69941b4973206e4978381987</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3013eb292b9942b03fb4fbc905195347</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>41E26C376AD309869DB528FE3F372AF945DD5449</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>855AE28E312760123F4B7662FE5FEBC30157D1F2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>94f025f3be089252692d58e54e3e926e09634e40</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>B3B17BD9B11B502EC01308952BF74CF80618B4C75269C7D833FC381D75635A43</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>79fea7f741760ea21ff655137af05bd0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>38fa2979382615bbee32d1f58295447c33ca4316</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>6EC5A6F44A756C96AB8956A29353E427</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>newsa.ddns.net</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Domain wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0D01B24F7666F9BCCF0F16EA97E41E0BC26F4C49CDFB7A4DABCC0A494B44EC9B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>F3A1576837ED56BCF79FF486AADF36E78D624853E9409EC1823A6F46FD0143EA</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>11203786b17bb3873d46acae32a898c8dac09850</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>B545BCC50ADCE9C788034F230C48A3C1A528874399226D12CA2D5395F6AF00C1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>D25F66ED468C20472354EE60C4C1D0ECBE0C0E5F6515263E4F7146224B72F0A2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>bb266486ee8ac70c0687989e02cefa14</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>15b57c1b68cd6ce3c161042e0f3be9f32d78151fe95461eedc59a79fc222c7ed</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ff56e700d15f3d944424c295eae926d9</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>C24A0A1BF44D6B4C59BA752DF79CEF3C42C84F574072336320DEBA29B1B9100C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>599573CB033F81E12A80D0D593AA1AFC</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>829ECEEE720B0A3E505EFBD3262C387B92ABDF46183D51A50489E2B157DAC3B1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0f933d57cd4c5f5d8717eb126a99ece6</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>DDF35FD3ADD011441FA9EEDF5A5F93E1CBD40E23</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>7e363b5f1ba373782261713fa99e8bbc35ddda97e48799c4eb28f17989da8d8e</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>B44E36B12F1BCF620BBDC4E076BF7D3F5A470D69</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>817f4bf0b4d0fc327fdfc21efacddaee</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>57a6dfd2b021e5a4d4fe34a61bf3242ecee841b3</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>a03d9e0baa0c7b71b2ed3afe38fb6ddeb346e030</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>6094E36A2E272B421AA422B7F6AEA13EE2E8BCB5</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A02AA1C7D3E066A9E45266E4279EC2B433003BC570406E6770BD4FF22A91902E</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>F93493BD48D6B98B127542750452FAE2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>50D308118008908832FE9C7FA78169EF8AAA960450C788A2C41AF0EB5E0A62DB</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>bd337d4e83ab1c2cacb43e4569f977d188f1bb7c7a077026304bf186d49d4117</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4216F63870E2CDFE499D09FCE9CAA301F9546F60A69C4032CB5FB6D5CEB9AF32</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>F30352E1E2060EA4E7406473F83B4C32</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2a3b660e19b56dad92ba45dd164d300e9bd9c3b17736004878f45ee23a0177ac</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>fb1e6156f0e3223694add66339864cd4</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>E6BF1A4CD83E3D556B3F3E531A1D9EE5D70AF3D6</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>845C7C30FB7C1CA0DE473F7E9D41C2B1A337D5E4919854461DA6002E1FBC8FA3</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>43B0CF93776BBDD72D582B9ED5A95D015CA682CA2D642E9509D374C79CCA098E</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>f837f1cd60e9941aa60f7be50a8f2aaaac380f560db8ee001408f35c1b7a97cb</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>159EF0DCEF607E1CE0996C565A5F3E82A501DCF1B6063C03EE8D30137E77D743</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>e7060538ee4b48b0b975c8928c617f218703dab7aa7814ce97481596f2a78556</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>B0EAEFF123AA659D2835F426EE72CFAB67BE889C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>DC3F58531E7D55FE2FCE6000298551DC5EC800E9</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>AFEF7B47F0CB7AB0FF30D2CC887381E1745C7536A123098633A4E31EBBCC60CB</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>c1dd3d5a3528bf56632200d247ca9774</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3F326DA2AFFB0F7F2A4C5C95FFC660CC</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>7D37DD154E8082EF00873DB737A34EC78938C05E</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>314F612125CCDD74DA023B567900A5AA0361240C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>F0FE23B30299336EA78741708527A906D7152AB8</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>3e794a584d75c2ceb07287fe450dcdc4d7ce949a</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>f95d865ef06f382bc9599a8093308afb9007ab89</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>51826408514057db47c0bbbffb2c581d</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>FF7F2651EC1EF2ED2F5379C6D1F5C7DE</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>F89A1461F6AFC8DA1B313171295D7C8D</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>CDD976F45690BB68B7FA622B575F35BD79B1D093</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>658e07739ad0137bceb910a351ce3fe4913f6fcc3f63e6ff2eb726e45f29e582</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>b588823eb5c65f36d067d496881d9c704d3ba57100c273656a56a43215f35442</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>e22436386688b5abe6780a462fd07cd12c3f3321</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>81d7c2d1dca5da7eef2896a76768d142</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>31C701AEF60F588ECE18D3D1392DA916</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>087497940a41d96e4e907b6dc92f75f4a38d861a</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>03704abc9c926f54a2c3bef6cbead8a5</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>160FA81F9433D3BD82EE67C4BF809212</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A118E1E110E285FB82495DEFE7D1C570D922EE0D</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>0c6f444c6940a3688ffc6f8b9d5774c032e3551ebbccb64e4280ae7fc1fac479</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>d42566e04d295a1e9e2823d202a1800cdc1ddd77</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>7B69E09DB581855979E20DD9E9F511F4</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>3730660DD06FDAE513B757199BE9846D1E022D5D70C1F246A583C55F19B87242</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>9241A453FAF8A16CA6A6FCAAD6C7EE44F2929469</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>0AB8602CEE94F36739B6649467CED514301E58FA</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>5098EC21C88E14D9039D232106560B3C87487B51B40D6FEF28254C37E4865182</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>c5ad3534e1c939661b71f56144d19ff36e9ea365fdb47e4f8e2d267c39376486</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>490C885DC7BA0F32C07DDFE02A04BBB9</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>59868f4b346bd401e067380cac69080709c86e06fae219bfb5bc17605a71ab3f</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>vm-srv-1.gel.ulaval.ca</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Domain wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Domain</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>markettrendingcenter.com</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Domain wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>3C9E550D41F3DE930E678776A6E018ED</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>5869820f261f76eafa1ba00af582a9225d005c89</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>655c2567650d2c109fab443de4b737294994f1fd</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>F5F5E3633B137BC0C2894BBCE46561EC</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Hash wasn't added, not found in VirusTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>BC7DFDB11535E12601ABCA39C7EE3874B9806F80</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SHA-1</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>36dff07387cf3f2393339d30d0672fcbccc7a73c</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>

--- a/app/src/data/resultat.xlsx
+++ b/app/src/data/resultat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>d767524e1bbb8d50129485ffa667eb1d379c745c30d4588672636998c20f857f</t>
+          <t>71.74.12.34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '71.74.12.34' combination.</t>
         </is>
       </c>
     </row>
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6F7F33619DAA8226B9D17BCF4972B77AC448B8B11E394B9633CD4177434CF24F</t>
+          <t>E8676686A42D6D5EB7957439297E288BFE5188B6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5ac485d60fe2c096b10cda2624588427928e3f0d</t>
+          <t>109.12.111.14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '109.12.111.14' combination.</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C677A79B853D3858F8C8B86CCD8C76EBBD1508CC9550F1DA2D30BE491625B744</t>
+          <t>3D78C842B16AC7EAF3D9A092F4BDA00ABF3378E5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>newdoc-lnpye.ondigitalocean.app</t>
+          <t>189.210.115.207</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Domain wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '189.210.115.207' combination.</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>c3e5d4e62ae4eca2bfca22f8f3c8cbec12757f78107e91e85404611548e06e40</t>
+          <t>4ED7609CBB86EA0B7607B8A002E7F85B316903C3B6801240C9576AAE8B3052FF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '4ed7609cbb86ea0b7607b8a002e7f85b316903c3b6801240c9576aae8b3052ff' combination.</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>b6b9d449c9416abf96d21b356a41a28e</t>
+          <t>14E7CC2EADC7C9BAC1930F37E25303212C8974674B21ED052A483727836A5E43</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '14e7cc2eadc7c9bac1930f37e25303212c8974674b21ed052a483727836a5e43' combination.</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cefea76dfdbb48cfe1a3db2c8df34e898e29bec9b2c13e79ef40655c637833ae</t>
+          <t>F7205F07677F0A0995CB232E3CBC7F73</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'f7205f07677f0a0995cb232e3cbc7f73' combination.</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ECCCC46FED8442F0B7121A83EF40CA7A35C744B9</t>
+          <t>2897721785645AD5B2A8FB524ED650C0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '2897721785645ad5b2a8fb524ed650c0' combination.</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3d7cf20ca6476e14e0a026f9bdd8ff1f26995cdc5854c3adb41a6135ef11ba83</t>
+          <t>75.188.35.168</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '75.188.35.168' combination.</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4D1C957652A19DA9F1127F5B87616426</t>
+          <t>E9FF9B7E144BDAD9D8955F4A328F7B6DAA2B455E</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ccde3fe374a219ed3a85a0bf548542c3</t>
+          <t>CFDF141404D8783F2C6181D185B3E1AD107E4169</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://satkas.waw.pl/rainloop/forecast</t>
+          <t>BAACFE8643EC95C12277961DABB411F2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'baacfe8643ec95c12277961dabb411f2' combination.</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0b6ef1e650df35e2d04c56ebfcceabc7</t>
+          <t>B595A580FDFE1308B47CF07805C81C32</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'b595a580fdfe1308b47cf07805c81c32' combination.</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>68E40E5A01EB9BC4232A20049B6FDC6D</t>
+          <t>BDF78C3E348A197847919EB1EDDA12E080072FAA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1241B9486D3D7C74C0BB1F2A7BDD81FF9597B2C92F2AF8A5B3819B296C400336</t>
+          <t>54a77b0fc778a24e4214ad725734328e</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '54a77b0fc778a24e4214ad725734328e' combination.</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3a08e3bfec2db5dbece359ac9662e65361a8625a0122e68b56cd5ef3aedf8ce1</t>
+          <t>3468b31f47a557fa45e096b6a212501f</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '3468b31f47a557fa45e096b6a212501f' combination.</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>aea5d3cced6725f37e2c3797735e6467</t>
+          <t>privacytoolzforyou6000.top</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'domain' and value: 'privacytoolzforyou6000.top' combination.</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lm-career.com</t>
+          <t>1535ea76379a3adb0a99d90f49af3801</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Domain wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '1535ea76379a3adb0a99d90f49af3801' combination.</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1326932d63485e299ba8e03bfcd23057f7897c3ae0d26ed1235c4fb108adb105</t>
+          <t>9F6E3B0B18F994950B40076D1386B4DA4CE0F1F973B129B32B363AAC4A678631</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '9f6e3b0b18f994950b40076d1386b4da4ce0f1f973b129b32b363aac4a678631' combination.</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cda37b13d1fdee1b4262b5a6146a35d8fc88fa572e55437a47a950037cc65d40</t>
+          <t>82.77.137.101</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '82.77.137.101' combination.</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A2ECA6FEABF08730BD6D09E2C208CBC5</t>
+          <t>76.25.142.196</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '76.25.142.196' combination.</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EC55A5CDA8F7990B89070F60D5C8FF26</t>
+          <t>73.151.236.31</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '73.151.236.31' combination.</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1A3C935784376EDD36D7D486307DF5F628841EE49189DBAF643D21D00A84CEF3</t>
+          <t>CBFC135BFF84D63C4A0CCB5102CFA17D8C9BF297079F3B2F1371DAFCBEFEA77C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'cbfc135bff84d63c4a0ccb5102cfa17d8c9bf297079f3b2f1371dafcbefea77c' combination.</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>d7a7fd3a7e3501114fd0049457f5ce09</t>
+          <t>2615BD2173DAC44A6AD14702F3C93E67</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '2615bd2173dac44a6ad14702f3c93e67' combination.</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0c7215c4325ded8139ea2f0428412f17e6c8f957</t>
+          <t>956ECB4AFA437EAFE56F958B34B6A78303AD626BAEE004715DC6634B7546BF85</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '956ecb4afa437eafe56f958b34b6a78303ad626baee004715dc6634b7546bf85' combination.</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>79920B220CCB05DE0AFE14F527574A53EA0AA7A9</t>
+          <t>6C526A28ED49B2EF83548E20A71610877E69D450</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3C174A5F255C6E46A8C051CF471E27374D816A4E</t>
+          <t>C789BB45CACF0DE1720E707F9EDD73B4ED0EDC958B3CE2D8F0AD5D4A7596923A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'c789bb45cacf0de1720e707f9edd73b4ed0edc958b3ce2d8f0ad5d4a7596923a' combination.</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8917af3878fa49fe4ec930230b881ff0ae8d19c9</t>
+          <t>92.59.35.196</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '92.59.35.196' combination.</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3B5477B88122B938BA6C437D35864D666C470D08</t>
+          <t>24.55.112.61</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '24.55.112.61' combination.</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>206159F87A621F278D884539B21E1EBABCF7C250E94935D5BA72F5B25D3EB777</t>
+          <t>68.186.192.69</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '68.186.192.69' combination.</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2D82FD4218BC53E0F021AAD017362B25</t>
+          <t>2F4085CB6A0B2DD4422F59894DCA5CF881EB8CCF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A27A9324D282D920E495832933D486EE</t>
+          <t>2b8080284c0611ec7288a6d3e34a545f</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '2b8080284c0611ec7288a6d3e34a545f' combination.</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>aae77d41eba652683f3ae114fadec279d5759052d2d774f149f3055bf40c4c14</t>
+          <t>46.105.81.76</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '46.105.81.76' combination.</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>c1187fe0eaddee995773d6c66bcb558536e9b62c</t>
+          <t>a679d50a9d3a7d63704e33177f59bab9e4357be02ca916beab97f8b9daca29d8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'a679d50a9d3a7d63704e33177f59bab9e4357be02ca916beab97f8b9daca29d8' combination.</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>766ABA5C62197F390BFFABDC78B7581F</t>
+          <t>06BE4CE3AEAE146A062B983CE21DD42B08CBA908A69958729E758BC41836735C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '06be4ce3aeae146a062b983ce21dd42b08cba908a69958729e758bc41836735c' combination.</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>F3B17523EF01CCF96FAA276EC78F774831D9747F1E8EFFAC902C04EC51408CC5</t>
+          <t>3D913A4BA5C4F7810EC6B418D7A07B6207B60E740DDE8AED3E2DF9DDF1CAAB27</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '3d913a4ba5c4f7810ec6b418d7a07b6207b60e740dde8aed3e2df9ddf1caab27' combination.</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>D67BD08E03A5E2054AAE8458B0C549CEC2F988A9E703D3ED755626D840990A0E</t>
+          <t>185.7.214.7</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '185.7.214.7' combination.</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>324c6626ab70399ef9864542ddbeedfb8fbddfb5</t>
+          <t>e4fbc46e6bf2830db3bbeac7ac96fe97b4ba8444</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>173c4085c23080d9fb19280cc507d28d</t>
+          <t>CA564C6702D5E653ED8421349F4D37795D944793A3DBD1BB3C5DBC5732F1B798</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'ca564c6702d5e653ed8421349f4d37795d944793a3dbd1bb3c5dbc5732f1b798' combination.</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A0989EC9AD1B74C5E8DEDCA4A02DCBB06ABDD86EC05D1712BFC560BF209E3B39</t>
+          <t>de3dc22cc6f9cfd7670517be6ad18f78f79e6248c32d2ff5af91224e837c9bd3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'de3dc22cc6f9cfd7670517be6ad18f78f79e6248c32d2ff5af91224e837c9bd3' combination.</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>dc963d8beb490d00261280dc5a9bc9cc700da602</t>
+          <t>EEE7C801BE1C21FA4791BBE9958EE68C66165B53</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1af1ca666e48afc933e2eda0ae1d6e88ebd23d27c54fd1d882161fd8c70b678e</t>
+          <t>27.223.92.142</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '27.223.92.142' combination.</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2a53525eeb7b76b3d1bfe40ac349446f2add8784</t>
+          <t>f82332b945a2ed02ad8edd45c90e0a7d8ba2193f</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>F38ABB67D47A4F69536AE67AA9C6DF7287C08869</t>
+          <t>2.56.59.42</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '2.56.59.42' combination.</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>F14B1A91ED1ECD365088BA6DE5846788F86689C6C2F2182855D5E0954D62AF3B</t>
+          <t>eb00f5ad5cdb3e202378f32c5e135f2a</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'eb00f5ad5cdb3e202378f32c5e135f2a' combination.</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>be8c5d07ab6e39db28c40db20a32f47a97b7ec9f26c9003f9101a154a5a98486</t>
+          <t>FCC49C9BE5591F241FFD98DB0752CB9E20A97E881969537FBA5C513ADBD72814</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'fcc49c9be5591f241ffd98db0752cb9e20a97e881969537fba5c513adbd72814' combination.</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>c6901bc6720e1e30c6c2e89aae874a90</t>
+          <t>D836FA75F0682B4C393418231AEFCA97169D551E</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2A3AA1166DB1BF391AA212F3C9985FC8</t>
+          <t>7BD85FEE9A79D2AAD47AC9F299B12FE0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '7bd85fee9a79d2aad47ac9f299b12fe0' combination.</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>markettrendingcenter[.]com</t>
+          <t>140.82.49.12</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '140.82.49.12' combination.</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>a854c960cde68d43fd42a24e79587b28</t>
+          <t>a66c2a67287a0781e18305076359a30a9bd5b23683feecc5ff7e82a01383e2b8</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'a66c2a67287a0781e18305076359a30a9bd5b23683feecc5ff7e82a01383e2b8' combination.</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>a8fd52bd107f7b62483c11c15923fbd2256c8bac</t>
+          <t>acfd5ff345a01a7107b63100a930c2a63fbd50aac738c6e8207eeb7c3cfcdcb5</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'acfd5ff345a01a7107b63100a930c2a63fbd50aac738c6e8207eeb7c3cfcdcb5' combination.</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>660E60CC1FD3E155017848A1F6BEFC4A335825A6AE04F3416B9B148FF156D143</t>
+          <t>F615ED88710B54131443555EE7F7EA97</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'f615ed88710b54131443555ee7f7ea97' combination.</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6ED412F07F623ED1D3ED04B9D4D1169A1268B1BA</t>
+          <t>684d87809604a15d9f49bd5dee29fb6e</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '684d87809604a15d9f49bd5dee29fb6e' combination.</t>
         </is>
       </c>
     </row>
@@ -1811,12 +1811,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>92ed8739cfb9132c8b57016e3c071a28</t>
+          <t>ec471e89fa74c32dc6e0fbccbdaa9e5dd42c0696</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1836,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>74845c914cc9525604ff06212f50b99386240183</t>
+          <t>f08c8e6bf954497390c5cc140745b579</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'f08c8e6bf954497390c5cc140745b579' combination.</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A59A5158931001CE3A77DB97AEAFE740</t>
+          <t>AA5C39DE77F15A91ED580E7A0F132EB14C970235</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>87A1EB14FC7AAAA4823A7035F3E01516</t>
+          <t>B6ED9B2819915C2B57D4C58E37C08BA4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'b6ed9b2819915c2b57d4c58e37c08ba4' combination.</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>e17dc8062742878b0b5ced2145311929f6f77abd</t>
+          <t>185.250.148.74</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '185.250.148.74' combination.</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5bdc0fb5cfbd42de726aacc40eddca034b5fa4afcc88ddfb40a3d9ae18672898</t>
+          <t>46.105.81.76</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '46.105.81.76' combination.</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>70b8bc74f381c9d7d1016006c3950f85</t>
+          <t>86CBF834C23A31B6791E47B7C34B515555FDDAF4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2pop.ddns.net</t>
+          <t>privacytoolzforyou7000.top</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Domain wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'domain' and value: 'privacytoolzforyou7000.top' combination.</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>a186c08d3d10885ebb129b1a0d8ea0da056fc362</t>
+          <t>e6c1b0f47b9240a8ce2aa9705c930c5dd5b98c046687158116637da10cafc493</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'e6c1b0f47b9240a8ce2aa9705c930c5dd5b98c046687158116637da10cafc493' combination.</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>28E864A8A296CE19668922A886529A24</t>
+          <t>4554DC95F99D6682595812B677FB131A7E7C51A71DAF461A57A57A0D903BB3FA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '4554dc95f99d6682595812b677fb131a7e7c51a71daf461a57a57a0d903bb3fa' combination.</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>8AFE25F8CB690F45B0BC154C38A56162</t>
+          <t>54753CA6879AB9F1D06264147CDF466B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '54753ca6879ab9f1d06264147cdf466b' combination.</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2cf54942e8cf0ef6296deaa7975618dadff0c32535295d3f0d5f577552229ffc</t>
+          <t>E0FAFE1B4EB787444ED457DBF05895A4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'e0fafe1b4eb787444ed457dbf05895a4' combination.</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2111,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4168465b8ab7a84c1b6cfff871e3defb</t>
+          <t>2B32F3A1BCFCE9F6DB00CF4C0FEEB291F6514AEE</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2136,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>newopt.servehttp.com</t>
+          <t>105.198.236.99</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Domain wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '105.198.236.99' combination.</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>11B5944715DA95E4A57EA54968439D955114088222FD2032D4E0282D12A58ABB</t>
+          <t>16B5B1494E211B74E97D9F35FF5A994F70411F2E</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>vm-srv-1[.]gel[.]ulaval[.]ca</t>
+          <t>929A591331BDC1972357059D451A651D575166F676EA51DAAEB358AA2A1064B7</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '929a591331bdc1972357059d451a651d575166f676ea51daaeb358aa2a1064b7' combination.</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>8e1f22dd9e809ead5e19b340b0c80cae</t>
+          <t>2F4085CB6A0B2DD4422F59894DCA5CF881EB8CCF</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>fd0d6046d6e3096bd38df9aa539d4b5502db9f85</t>
+          <t>24.229.150.54</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '24.229.150.54' combination.</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7154fdb1ef9044da59fcfdbdd1ed9abc1a594cacb41a0aeddb5cd9fdaeea5ea8</t>
+          <t>17BB787FEE1B83990F47DDAEAA81EFC26F04457D</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2286,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>6116a5b0c0b6c147a2c715aad2eb1cd082941715</t>
+          <t>88834D17D2CDCE884A73E38638A4E0DD</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '88834d17d2cdce884a73e38638a4e0dd' combination.</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5c6ca5581a04955d8e4d1fa452621fbc922ecb7b</t>
+          <t>88319E075EE9D7092A11A1E0237EE16C</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '88319e075ee9d7092a11a1e0237ee16c' combination.</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2336,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>F7A3F1DB525017D0C2D1533AD6903CF44E0D0E07</t>
+          <t>FCC49C9BE5591F241FFD98DB0752CB9E20A97E881969537FBA5C513ADBD72814</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'fcc49c9be5591f241ffd98db0752cb9e20a97e881969537fba5c513adbd72814' combination.</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>9D18DEFE7390C59A1473F79A2407D072A3F365DE9834B8D8BE25F7E35A76D818</t>
+          <t>56839287637B98F12187E61EA5626E21</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '56839287637b98f12187e61ea5626e21' combination.</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>f8c08d00ff6e8c6adb1a93cd133b19302d0b651afd73ccb54e3b6ac6c60d99c6</t>
+          <t>173.25.166.81</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '173.25.166.81' combination.</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>c5181892afde538c73109b4c83e2a2730eb9014d</t>
+          <t>89.101.97.139</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '89.101.97.139' combination.</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2436,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>f466b4d686d1fa9fed064507639b9306b0d80bbf</t>
+          <t>196.218.227.241</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '196.218.227.241' combination.</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9802a1e8fb425ac3a7c0a7fca5a17cfcb7f3f5f0962deb29e3982f0bece95e26</t>
+          <t>5DD964C8D9025224EB658F96034BABEA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '5dd964c8d9025224eb658f96034babea' combination.</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2AD24B1205BCDE3BFABE279DD3D881F1</t>
+          <t>privacy-toolz-for-you-403.top</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'domain' and value: 'privacy-toolz-for-you-403.top' combination.</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>9f6876762614e407d0ee6005f165dd4bbd12cb21986abc4a3a5c7dc6271fcdc3</t>
+          <t>6ABBD89E6AB5E1B63C38A8F78271A97D19BAFFF4959EA9D5BD5DA3B185EB61E6</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '6abbd89e6ab5e1b63c38a8f78271a97d19bafff4959ea9d5bd5da3b185eb61e6' combination.</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>C124AFE619E92B9BF9FCBB6D551DBC0E</t>
+          <t>AD413CD422C1A0355163618683E936A0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'ad413cd422c1a0355163618683e936a0' combination.</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>13828b390d5f58b002e808c2c4f02fdd920e236cc8015480fa33b6c1a9300e31</t>
+          <t>43660D21BFA1431E0EE3426CD12DDF38</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '43660d21bfa1431e0ee3426cd12ddf38' combination.</t>
         </is>
       </c>
     </row>
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ce5540c0d2c54489737f3fefdbf72c889ac533a9</t>
+          <t>privacytoolzforyou-6000.top</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'domain' and value: 'privacytoolzforyou-6000.top' combination.</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>362aa21546904629b28a56c9d5c4bfd3b53296f5</t>
+          <t>68.204.7.158</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '68.204.7.158' combination.</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>085b8046d0c3958d78751b6825052d66</t>
+          <t>56839287637B98F12187E61EA5626E21</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '56839287637b98f12187e61ea5626e21' combination.</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9146a448463935b47e29155da74c68d16e0d7031</t>
+          <t>9D12105B2E0055A86A3EA9F284718E2CE60D3E74</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>28d7e6fe31dc00f82cb032ba29aad6429837ba5efb83c2ce4d31d565896e1169</t>
+          <t>70A49561F39BB362A2EF79DB15E326812912C17D6E6EB38EF40343A95409A19A</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '70a49561f39bb362a2ef79db15e326812912c17d6e6eb38ef40343a95409a19a' combination.</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>730bd2385c3fc6d2bee48c0a9bcb373c</t>
+          <t>188776C2BDD001D6A57B1CFC7E156DD3</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '188776c2bdd001d6a57b1cfc7e156dd3' combination.</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>221c91c48390a941b381fb5cd6df60df</t>
+          <t>7332A59679C7732855D11DFF20061A76</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '7332a59679c7732855d11dff20061a76' combination.</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>89060eff6db13e7455fee151205e972260e9522a</t>
+          <t>136.232.34.70</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '136.232.34.70' combination.</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>201D8BD6FA2BBD4CEC0FB059D3C9E37426C2866A</t>
+          <t>AAE0553B761E8BB3E58902A46CD98EE68310252734D1F8D9FD3B862AAB8ED5C9</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'aae0553b761e8bb3e58902a46cd98ee68310252734d1f8d9fd3b862aab8ed5c9' combination.</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2811,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7145A440BBF662CC1DE104770036A4D5</t>
+          <t>95.77.223.148</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '95.77.223.148' combination.</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>783b2b053ef0345710cd2487e5184f29116e367c</t>
+          <t>72.252.201.69</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '72.252.201.69' combination.</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>9c54d3b2a64d92bca577a12b70d8d29a</t>
+          <t>79A90C8BC6FD6179CB91D2EA2666124B</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '79a90c8bc6fd6179cb91d2ea2666124b' combination.</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>A4565FBB5570C30085FB77C674B4F1B7D069BDD2350747304EFC911C905C3E31</t>
+          <t>5FCA07DFC68A13B3707636440D5C416E56149357</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>f7a038f9b91c40e9d67f4168997d7d8c12c2d27cd9e36c413dd021796a24e083</t>
+          <t>2615BD2173DAC44A6AD14702F3C93E67</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '2615bd2173dac44a6ad14702f3c93e67' combination.</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2587001d6599f0ec03534ea823aab0febb75e83f657fadc3a662338cc08646b0</t>
+          <t>EEF15F6416F756693CBFBFD8650CCB665771B54B4CC31CB09AEEA0D13EC640CF</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'eef15f6416f756693cbfbfd8650ccb665771b54b4cc31cb09aeea0d13ec640cf' combination.</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>C484B7F3EB8C79C87ACA222BEE354982512E0E86</t>
+          <t>5D3B7E0C05E65AA0DFC8B5E48142D782352E36BE</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7E303AF8C686A0C98FA87A34DE1FFCF08F64A093</t>
+          <t>1411250EB56C55E274FBCF0741BBD3B5C917167D153779C7D8041AB2627EF95F</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '1411250eb56c55e274fbcf0741bbd3b5c917167d153779c7d8041ab2627ef95f' combination.</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3011,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4373cf0d42926b15f95e35683d883a1c</t>
+          <t>5ADBE8D0375D6531F1A523085F4DF4151AD1BD7AE539692E2CAA3D0D73301293</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '5adbe8d0375d6531f1a523085f4df4151ad1bd7ae539692e2caa3d0d73301293' combination.</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3036,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>lm-career[.]com</t>
+          <t>21c2867e81b6f78c2fecba181c8bc7a51fc82a99</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5121f08cf8614a65d7a86c2f462c0694c132e2877a7f54ab7fcefd7ee5235a42</t>
+          <t>af41c3193257d3cbd07e5a9e1cb6fd6011101a40</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3086,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>fe16fa500584cb241532dc7cb75c1f53</t>
+          <t>304D8E812A8D988E21AF8A865D8DD577DC6F3134</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3111,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>d5d4dd13900a1fef828d4a0193ce05a2</t>
+          <t>5bd8befa1fad2b4b7d2d67a52625e083799354e5</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>38834b796ed025563774167716a477e9217d45e47def20facb027325f2a790d1</t>
+          <t>BF7B5F72B2055CFC8DA01BB48CF5AE8E45E523860E0B23A65B9F14DBDBB7F4EE</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'bf7b5f72b2055cfc8da01bb48cf5ae8e45e523860e0b23a65b9f14dbdbb7f4ee' combination.</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>da1e4a09a59565c5d62887e0e9a9f6f04a18b5f4</t>
+          <t>24.139.72.117</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '24.139.72.117' combination.</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3186,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>8A67BB1E9EB625935B02C504DD4FCED1D12F0B4B7784EEAF0BD94E1C741EE99A</t>
+          <t>47.22.148.6</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '47.22.148.6' combination.</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>newdoc-lnpye.ondigitalocean.app</t>
+          <t>495388cc2be9ad2ac6555dcc1711a9e84a43dd373e1f27629a2e335c43abcfbb</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '495388cc2be9ad2ac6555dcc1711a9e84a43dd373e1f27629a2e335c43abcfbb' combination.</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>843001980e5073c7f0ea8b56873246b8</t>
+          <t>120.150.218.241</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '120.150.218.241' combination.</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>E4AD32AA6D0F839342FC22B71530F04A4AB756E15F35707654828360FBD0AEEF</t>
+          <t>46c6f2719d05edb434a831e82bcaf1827cad665d</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3E163EE535052192EDAC6DDB29D2B6A15A240C7C</t>
+          <t>65202b343ccc9753d39f3cb2ff1436ac17a9fb88a6e296ef166e64e6e3b7daea</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '65202b343ccc9753d39f3cb2ff1436ac17a9fb88a6e296ef166e64e6e3b7daea' combination.</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>769fdda466dcd97eb8a7a99c958d460e</t>
+          <t>c8d0aec9e1e1d2fec33726b24ea7675484127bef</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>c8b3b67ea4d7625f8b37ba59eed5c9406b3ef04b7a19b97e5dd5dab1bd59f283</t>
+          <t>24e955ba66911deab068c74fa9956a259ad041ba</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ed075c4718fd98efcbc845db00677065</t>
+          <t>03E96FC686CC15A0BB26186ECB4FE63E6B841C4B</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3386,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>7b2449bb8be1b37a9d580c2592a67a759a3116fe640041d0f36dc93ca3db4487</t>
+          <t>173.21.10.71</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '173.21.10.71' combination.</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>75B4AB33E788181C36CFDE764254E9E7C4D1A981B7832BBC60009FCDEC7F586C</t>
+          <t>71d721dfbd6c375c327a8470f0664b53cfce5f50303145bbd5f837ffd8b48a6a</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '71d721dfbd6c375c327a8470f0664b53cfce5f50303145bbd5f837ffd8b48a6a' combination.</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>18A352D33C8C01B6A196ADCE176C5A96</t>
+          <t>E510566244A899D6A427C1648E680A2310C170A5F25AFF53B15D8DE52CA11767</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'e510566244a899d6a427c1648e680a2310c170a5f25aff53b15d8de52ca11767' combination.</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>731adcf2d7fb61a8335e23dbee2436249e5d5753977ec465754c6b699e9bf161</t>
+          <t>17BB787FEE1B83990F47DDAEAA81EFC26F04457D</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4e18f9293a6a72d5d42dad179b532407f45663098f959ea552ae43dbb9725cbf</t>
+          <t>A0538746CE241A518E3A056789EA60671F626613DD92F3CAA5A95E92E65357B3</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'a0538746ce241a518e3a056789ea60671f626613dd92f3caa5a95e92e65357b3' combination.</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>e69cb001797f1948c490fa165e1cc077</t>
+          <t>F94D5BF14DEE6A6E8DB957D49C259082DD82350B</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>c681038bc738ff0a816176c4cd21150c</t>
+          <t>353A21B3835AC7C17A82AF79302D23CC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '353a21b3835ac7c17a82af79302d23cc' combination.</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>68099e389d48e23e66f92fe9bf328a01</t>
+          <t>privacy-tools-for-you-777.com</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'domain' and value: 'privacy-tools-for-you-777.com' combination.</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>825F5631EC36C5811ED91170F8C0E0A57BFAAEE4</t>
+          <t>2A8CF6154E6A129FFD07A501BBC0B098</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '2a8cf6154e6a129ffd07a501bbc0b098' combination.</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>55F4D7297800A4A4142BE065E1674229CB1B120E8ADE7B4FF7938AFFCFDB85C6</t>
+          <t>45.46.53.140</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '45.46.53.140' combination.</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>722f1c1527b2c788746fec4dd1af70b0c703644336909735f8f23f6ef265784b</t>
+          <t>850ba59403825d4feebbff0112c448143ebe8b872040e7383f201b9b101ae4bc</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '850ba59403825d4feebbff0112c448143ebe8b872040e7383f201b9b101ae4bc' combination.</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>294690C1AEE8DC7723858DAFCB2A0ED273296641</t>
+          <t>0b16c4d406c5b85aa372f6d14fe1ed28</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '0b16c4d406c5b85aa372f6d14fe1ed28' combination.</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0160375E19E606D06F672BE6E43F70FA70093D2A30031AFFD2929A5C446D07C1</t>
+          <t>B5B264D00A7D6D6B3DD4965DBE2BD00E0823BA6C</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>77413cb3f469d00d69941b4973206e4978381987</t>
+          <t>A295F15F38F8D4E83B5DB8F51ADDAE2D2DF328DD</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3013eb292b9942b03fb4fbc905195347</t>
+          <t>000DF43B256CDC27BB22870919BB1DFA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
+          <t>Warning: Duplicate type: 'md5' and value: '000df43b256cdc27bb22870919bb1dfa' combination.</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>41E26C376AD309869DB528FE3F372AF945DD5449</t>
+          <t>09a2ab61f1a4bf561025dd98473c4309</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '09a2ab61f1a4bf561025dd98473c4309' combination.</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>855AE28E312760123F4B7662FE5FEBC30157D1F2</t>
+          <t>F9246BE51464E71FF6B37975CD44359E8576F2BF03CB4028E536D7CFDE3508FC</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'f9246be51464e71ff6b37975cd44359e8576f2bf03cb4028e536d7cfde3508fc' combination.</t>
         </is>
       </c>
     </row>
@@ -3811,12 +3811,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>94f025f3be089252692d58e54e3e926e09634e40</t>
+          <t>185.7.214.7</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3826,1982 +3826,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>B3B17BD9B11B502EC01308952BF74CF80618B4C75269C7D833FC381D75635A43</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>79fea7f741760ea21ff655137af05bd0</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>38fa2979382615bbee32d1f58295447c33ca4316</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>6EC5A6F44A756C96AB8956A29353E427</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Domain</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>newsa.ddns.net</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Domain wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>0D01B24F7666F9BCCF0F16EA97E41E0BC26F4C49CDFB7A4DABCC0A494B44EC9B</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>F3A1576837ED56BCF79FF486AADF36E78D624853E9409EC1823A6F46FD0143EA</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>11203786b17bb3873d46acae32a898c8dac09850</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>B545BCC50ADCE9C788034F230C48A3C1A528874399226D12CA2D5395F6AF00C1</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>D25F66ED468C20472354EE60C4C1D0ECBE0C0E5F6515263E4F7146224B72F0A2</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>bb266486ee8ac70c0687989e02cefa14</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>15b57c1b68cd6ce3c161042e0f3be9f32d78151fe95461eedc59a79fc222c7ed</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>ff56e700d15f3d944424c295eae926d9</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>C24A0A1BF44D6B4C59BA752DF79CEF3C42C84F574072336320DEBA29B1B9100C</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>599573CB033F81E12A80D0D593AA1AFC</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>829ECEEE720B0A3E505EFBD3262C387B92ABDF46183D51A50489E2B157DAC3B1</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>0f933d57cd4c5f5d8717eb126a99ece6</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>DDF35FD3ADD011441FA9EEDF5A5F93E1CBD40E23</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>7e363b5f1ba373782261713fa99e8bbc35ddda97e48799c4eb28f17989da8d8e</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>B44E36B12F1BCF620BBDC4E076BF7D3F5A470D69</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>817f4bf0b4d0fc327fdfc21efacddaee</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>57a6dfd2b021e5a4d4fe34a61bf3242ecee841b3</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>a03d9e0baa0c7b71b2ed3afe38fb6ddeb346e030</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>6094E36A2E272B421AA422B7F6AEA13EE2E8BCB5</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>A02AA1C7D3E066A9E45266E4279EC2B433003BC570406E6770BD4FF22A91902E</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>F93493BD48D6B98B127542750452FAE2</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>50D308118008908832FE9C7FA78169EF8AAA960450C788A2C41AF0EB5E0A62DB</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>bd337d4e83ab1c2cacb43e4569f977d188f1bb7c7a077026304bf186d49d4117</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>4216F63870E2CDFE499D09FCE9CAA301F9546F60A69C4032CB5FB6D5CEB9AF32</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>F30352E1E2060EA4E7406473F83B4C32</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>2a3b660e19b56dad92ba45dd164d300e9bd9c3b17736004878f45ee23a0177ac</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>fb1e6156f0e3223694add66339864cd4</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>E6BF1A4CD83E3D556B3F3E531A1D9EE5D70AF3D6</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>845C7C30FB7C1CA0DE473F7E9D41C2B1A337D5E4919854461DA6002E1FBC8FA3</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>43B0CF93776BBDD72D582B9ED5A95D015CA682CA2D642E9509D374C79CCA098E</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>f837f1cd60e9941aa60f7be50a8f2aaaac380f560db8ee001408f35c1b7a97cb</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>159EF0DCEF607E1CE0996C565A5F3E82A501DCF1B6063C03EE8D30137E77D743</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>e7060538ee4b48b0b975c8928c617f218703dab7aa7814ce97481596f2a78556</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>B0EAEFF123AA659D2835F426EE72CFAB67BE889C</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>DC3F58531E7D55FE2FCE6000298551DC5EC800E9</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>AFEF7B47F0CB7AB0FF30D2CC887381E1745C7536A123098633A4E31EBBCC60CB</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>c1dd3d5a3528bf56632200d247ca9774</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>3F326DA2AFFB0F7F2A4C5C95FFC660CC</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>7D37DD154E8082EF00873DB737A34EC78938C05E</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>314F612125CCDD74DA023B567900A5AA0361240C</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>F0FE23B30299336EA78741708527A906D7152AB8</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>3e794a584d75c2ceb07287fe450dcdc4d7ce949a</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>f95d865ef06f382bc9599a8093308afb9007ab89</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>51826408514057db47c0bbbffb2c581d</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>FF7F2651EC1EF2ED2F5379C6D1F5C7DE</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>F89A1461F6AFC8DA1B313171295D7C8D</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>CDD976F45690BB68B7FA622B575F35BD79B1D093</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>658e07739ad0137bceb910a351ce3fe4913f6fcc3f63e6ff2eb726e45f29e582</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>b588823eb5c65f36d067d496881d9c704d3ba57100c273656a56a43215f35442</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>e22436386688b5abe6780a462fd07cd12c3f3321</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>81d7c2d1dca5da7eef2896a76768d142</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>31C701AEF60F588ECE18D3D1392DA916</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>087497940a41d96e4e907b6dc92f75f4a38d861a</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>03704abc9c926f54a2c3bef6cbead8a5</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>160FA81F9433D3BD82EE67C4BF809212</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>A118E1E110E285FB82495DEFE7D1C570D922EE0D</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>0c6f444c6940a3688ffc6f8b9d5774c032e3551ebbccb64e4280ae7fc1fac479</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>d42566e04d295a1e9e2823d202a1800cdc1ddd77</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>7B69E09DB581855979E20DD9E9F511F4</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>3730660DD06FDAE513B757199BE9846D1E022D5D70C1F246A583C55F19B87242</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>9241A453FAF8A16CA6A6FCAAD6C7EE44F2929469</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>0AB8602CEE94F36739B6649467CED514301E58FA</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>5098EC21C88E14D9039D232106560B3C87487B51B40D6FEF28254C37E4865182</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>c5ad3534e1c939661b71f56144d19ff36e9ea365fdb47e4f8e2d267c39376486</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>490C885DC7BA0F32C07DDFE02A04BBB9</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>59868f4b346bd401e067380cac69080709c86e06fae219bfb5bc17605a71ab3f</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Domain</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>vm-srv-1.gel.ulaval.ca</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Domain wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Domain</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>markettrendingcenter.com</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Domain wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>3C9E550D41F3DE930E678776A6E018ED</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>5869820f261f76eafa1ba00af582a9225d005c89</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>655c2567650d2c109fab443de4b737294994f1fd</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>F5F5E3633B137BC0C2894BBCE46561EC</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Hash wasn't added, not found in VirusTotal</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>BC7DFDB11535E12601ABCA39C7EE3874B9806F80</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>36dff07387cf3f2393339d30d0672fcbccc7a73c</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '185.7.214.7' combination.</t>
         </is>
       </c>
     </row>

--- a/app/src/data/resultat.xlsx
+++ b/app/src/data/resultat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>71.74.12.34</t>
+          <t>e837f252af30cc222a1bce815e609a7354e1f9c814baefbb5d45e32a10563759</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '71.74.12.34' combination.</t>
+          <t>severity: The 'severity' field must contain a valid severity. Allowed values: [informational low medium high critical].</t>
         </is>
       </c>
     </row>
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>E8676686A42D6D5EB7957439297E288BFE5188B6</t>
+          <t>959a7df5c465fcd963a641d87c18a565</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '959a7df5c465fcd963a641d87c18a565' combination.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>109.12.111.14</t>
+          <t>91.206.14.151</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '109.12.111.14' combination.</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '91.206.14.151' combination.</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3D78C842B16AC7EAF3D9A092F4BDA00ABF3378E5</t>
+          <t>bbed408b87701b0132e26570fb9fa94cb4bd9ab7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>189.210.115.207</t>
+          <t>5c0a549ae45d9abe54ab662e53c484e2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '189.210.115.207' combination.</t>
+          <t>severity: The 'severity' field must contain a valid severity. Allowed values: [informational low medium high critical].</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4ED7609CBB86EA0B7607B8A002E7F85B316903C3B6801240C9576AAE8B3052FF</t>
+          <t>1df11bc19aa52b623bdf15380e3fded56d8eb6fb7b53a2240779864b1a6474ad</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '4ed7609cbb86ea0b7607b8a002e7f85b316903c3b6801240c9576aae8b3052ff' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '1df11bc19aa52b623bdf15380e3fded56d8eb6fb7b53a2240779864b1a6474ad' combination.</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14E7CC2EADC7C9BAC1930F37E25303212C8974674B21ED052A483727836A5E43</t>
+          <t>2d2030dee51b98bdeb397cfb93f897a5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '14e7cc2eadc7c9bac1930f37e25303212c8974674b21ed052a483727836a5e43' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '2d2030dee51b98bdeb397cfb93f897a5' combination.</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>F7205F07677F0A0995CB232E3CBC7F73</t>
+          <t>632f1c77337cca803467f7d368233cc59e9f0c6a</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'f7205f07677f0a0995cb232e3cbc7f73' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2897721785645AD5B2A8FB524ED650C0</t>
+          <t>5de37c17703e9b8d76222a30f2b1da22</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '2897721785645ad5b2a8fb524ed650c0' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '5de37c17703e9b8d76222a30f2b1da22' combination.</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>75.188.35.168</t>
+          <t>31d223c813a592422461f0d6707ba571</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '75.188.35.168' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '31d223c813a592422461f0d6707ba571' combination.</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E9FF9B7E144BDAD9D8955F4A328F7B6DAA2B455E</t>
+          <t>213.226.71.125</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '213.226.71.125' combination.</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CFDF141404D8783F2C6181D185B3E1AD107E4169</t>
+          <t>43f46a66c821e143d77f9311b24314b5c5eeccfedbb3fbf1cd484c9e4f537a5d</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '43f46a66c821e143d77f9311b24314b5c5eeccfedbb3fbf1cd484c9e4f537a5d' combination.</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BAACFE8643EC95C12277961DABB411F2</t>
+          <t>040a4985172c82474459b384fe9269922ac0b98e</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'baacfe8643ec95c12277961dabb411f2' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B595A580FDFE1308B47CF07805C81C32</t>
+          <t>https://crmweb.info:443/bitrix/rc9XjtwF/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'b595a580fdfe1308b47cf07805c81c32' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BDF78C3E348A197847919EB1EDDA12E080072FAA</t>
+          <t>185.112.83.96</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '185.112.83.96' combination.</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>54a77b0fc778a24e4214ad725734328e</t>
+          <t>http://accessunited-bank.com/admin/hzIgVwq8btak/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '54a77b0fc778a24e4214ad725734328e' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3468b31f47a557fa45e096b6a212501f</t>
+          <t>d63a7756bfdcd2be6c755bf288a92c8b</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '3468b31f47a557fa45e096b6a212501f' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'd63a7756bfdcd2be6c755bf288a92c8b' combination.</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>privacytoolzforyou6000.top</t>
+          <t>54270176a3484672055a816d13df613b5b614e0c</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'domain' and value: 'privacytoolzforyou6000.top' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1535ea76379a3adb0a99d90f49af3801</t>
+          <t>http://pigij.com/wp-admin/MVW5/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '1535ea76379a3adb0a99d90f49af3801' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9F6E3B0B18F994950B40076D1386B4DA4CE0F1F973B129B32B363AAC4A678631</t>
+          <t>95e2fa71574c0cecbe15cf8fb4877bd97ce30ed0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '9f6e3b0b18f994950b40076d1386b4da4ce0f1f973b129b32b363aac4a678631' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>82.77.137.101</t>
+          <t>0527026e0dc249e11533213908e979ab</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '82.77.137.101' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '0527026e0dc249e11533213908e979ab' combination.</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>76.25.142.196</t>
+          <t>ebb4c466a74b28546c04a94a28df781c80ad9c75</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '76.25.142.196' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>73.151.236.31</t>
+          <t>1785f4058c78ae3dd030808212ae3b04</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '73.151.236.31' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '1785f4058c78ae3dd030808212ae3b04' combination.</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CBFC135BFF84D63C4A0CCB5102CFA17D8C9BF297079F3B2F1371DAFCBEFEA77C</t>
+          <t>96d9b8d6658149ca78b2dc13e3f63bcd2dd87667</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'cbfc135bff84d63c4a0ccb5102cfa17d8c9bf297079f3b2f1371dafcbefea77c' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2615BD2173DAC44A6AD14702F3C93E67</t>
+          <t>b8293f2296ac09663e27759a39431fd6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '2615bd2173dac44a6ad14702f3c93e67' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'b8293f2296ac09663e27759a39431fd6' combination.</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>956ECB4AFA437EAFE56F958B34B6A78303AD626BAEE004715DC6634B7546BF85</t>
+          <t>f3574a47570cccebb1c502287e21218277ffc589</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '956ecb4afa437eafe56f958b34b6a78303ad626baee004715dc6634b7546bf85' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6C526A28ED49B2EF83548E20A71610877E69D450</t>
+          <t>d4aa276a7fbe8dcd858174eeacbb26ce</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'd4aa276a7fbe8dcd858174eeacbb26ce' combination.</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C789BB45CACF0DE1720E707F9EDD73B4ED0EDC958B3CE2D8F0AD5D4A7596923A</t>
+          <t>d9e94f076d175ace80f211ea298fa46e</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'c789bb45cacf0de1720e707f9edd73b4ed0edc958b3ce2d8f0ad5d4a7596923a' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'd9e94f076d175ace80f211ea298fa46e' combination.</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>92.59.35.196</t>
+          <t>ddf039c3d6395139fd7f31b0a796a444f385c582ca978779aae7314b19940812</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '92.59.35.196' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'ddf039c3d6395139fd7f31b0a796a444f385c582ca978779aae7314b19940812' combination.</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>24.55.112.61</t>
+          <t>7139415fecd716bec6d38d2004176f5d</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '24.55.112.61' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '7139415fecd716bec6d38d2004176f5d' combination.</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>68.186.192.69</t>
+          <t>ef3e0845b289f1d3b5b234b0507c554dfdd23a5b77f36d433489129ea722c6bb</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '68.186.192.69' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'ef3e0845b289f1d3b5b234b0507c554dfdd23a5b77f36d433489129ea722c6bb' combination.</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2F4085CB6A0B2DD4422F59894DCA5CF881EB8CCF</t>
+          <t>31f818372fa07d1fd158c91510b6a077</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '31f818372fa07d1fd158c91510b6a077' combination.</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2b8080284c0611ec7288a6d3e34a545f</t>
+          <t>http://strawberry.kids-singer.net/assets_c/WAdvNT84Dmu/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '2b8080284c0611ec7288a6d3e34a545f' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>46.105.81.76</t>
+          <t>5f40e1859053b70df9c0753d327f2cee</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '46.105.81.76' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '5f40e1859053b70df9c0753d327f2cee' combination.</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>a679d50a9d3a7d63704e33177f59bab9e4357be02ca916beab97f8b9daca29d8</t>
+          <t>https://eleccom.shop:443/services/AEjSDj/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'a679d50a9d3a7d63704e33177f59bab9e4357be02ca916beab97f8b9daca29d8' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>06BE4CE3AEAE146A062B983CE21DD42B08CBA908A69958729E758BC41836735C</t>
+          <t>4ce0bdd2d4303bf77611b8b34c7d2883</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '06be4ce3aeae146a062b983ce21dd42b08cba908a69958729e758bc41836735c' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '4ce0bdd2d4303bf77611b8b34c7d2883' combination.</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3D913A4BA5C4F7810EC6B418D7A07B6207B60E740DDE8AED3E2DF9DDF1CAAB27</t>
+          <t>54d36e5dce2e546070dc0571c8b3e166d6df62296fa0609a325ace23b7105335</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '3d913a4ba5c4f7810ec6b418d7a07b6207b60e740dde8aed3e2df9ddf1caab27' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '54d36e5dce2e546070dc0571c8b3e166d6df62296fa0609a325ace23b7105335' combination.</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>185.7.214.7</t>
+          <t>8c4294e3154675cd926ab6b772dbbe0e7a49cae16f4a37d908e1ca6748251c43</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '185.7.214.7' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '8c4294e3154675cd926ab6b772dbbe0e7a49cae16f4a37d908e1ca6748251c43' combination.</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>e4fbc46e6bf2830db3bbeac7ac96fe97b4ba8444</t>
+          <t>https://izocab.com/nashi-klienty/B5SC/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CA564C6702D5E653ED8421349F4D37795D944793A3DBD1BB3C5DBC5732F1B798</t>
+          <t>58e8043876f2f302fbc98d00c270778b</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'ca564c6702d5e653ed8421349f4d37795d944793a3dbd1bb3c5dbc5732f1b798' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '58e8043876f2f302fbc98d00c270778b' combination.</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>de3dc22cc6f9cfd7670517be6ad18f78f79e6248c32d2ff5af91224e837c9bd3</t>
+          <t>526215dda9d0e85bcb6bce827f3f85d2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'de3dc22cc6f9cfd7670517be6ad18f78f79e6248c32d2ff5af91224e837c9bd3' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '526215dda9d0e85bcb6bce827f3f85d2' combination.</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EEE7C801BE1C21FA4791BBE9958EE68C66165B53</t>
+          <t>38cd6b79c832b575aa04221e608cbb7e</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>severity: The 'severity' field must contain a valid severity. Allowed values: [informational low medium high critical].</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>27.223.92.142</t>
+          <t>e479a80de91ef78dbbf7f46363e59828</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '27.223.92.142' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'e479a80de91ef78dbbf7f46363e59828' combination.</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>f82332b945a2ed02ad8edd45c90e0a7d8ba2193f</t>
+          <t>cea6be26d81a8ff3db0d9da666cd0f8f</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'cea6be26d81a8ff3db0d9da666cd0f8f' combination.</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2.56.59.42</t>
+          <t>0c7b8da133799dd72d0dbe3ea012031e</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '2.56.59.42' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '0c7b8da133799dd72d0dbe3ea012031e' combination.</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>eb00f5ad5cdb3e202378f32c5e135f2a</t>
+          <t>3d1fb09a9a05ab6cf83c4e7cdf5fe40e67064063</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'eb00f5ad5cdb3e202378f32c5e135f2a' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FCC49C9BE5591F241FFD98DB0752CB9E20A97E881969537FBA5C513ADBD72814</t>
+          <t>28b791746c97c0c04dcbfe0954e7173b</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'fcc49c9be5591f241ffd98db0752cb9e20a97e881969537fba5c513adbd72814' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '28b791746c97c0c04dcbfe0954e7173b' combination.</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D836FA75F0682B4C393418231AEFCA97169D551E</t>
+          <t>d9e94f076d175ace80f211ea298fa46e</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'd9e94f076d175ace80f211ea298fa46e' combination.</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7BD85FEE9A79D2AAD47AC9F299B12FE0</t>
+          <t>5cc861346ab9f1980a919f70671894e8</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '7bd85fee9a79d2aad47ac9f299b12fe0' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '5cc861346ab9f1980a919f70671894e8' combination.</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>140.82.49.12</t>
+          <t>http://hotelamerpalace.com/Fox-C404/LEPqPJpt4Gbr8BHAn/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '140.82.49.12' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>a66c2a67287a0781e18305076359a30a9bd5b23683feecc5ff7e82a01383e2b8</t>
+          <t>9bda03babb0f2c6aa9861eca95b33af06a650e2851cce4edcc1fc3abd8e7c2a1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'a66c2a67287a0781e18305076359a30a9bd5b23683feecc5ff7e82a01383e2b8' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '9bda03babb0f2c6aa9861eca95b33af06a650e2851cce4edcc1fc3abd8e7c2a1' combination.</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>acfd5ff345a01a7107b63100a930c2a63fbd50aac738c6e8207eeb7c3cfcdcb5</t>
+          <t>http://unifiedpharma.com/wp-content/5arxM/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'acfd5ff345a01a7107b63100a930c2a63fbd50aac738c6e8207eeb7c3cfcdcb5' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>F615ED88710B54131443555EE7F7EA97</t>
+          <t>151c6f04aeff0e00c54929f25328f6f7</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'f615ed88710b54131443555ee7f7ea97' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '151c6f04aeff0e00c54929f25328f6f7' combination.</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>684d87809604a15d9f49bd5dee29fb6e</t>
+          <t>405cb8b1e55bb2a50f2ef3e7c2b28496</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '684d87809604a15d9f49bd5dee29fb6e' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '405cb8b1e55bb2a50f2ef3e7c2b28496' combination.</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ec471e89fa74c32dc6e0fbccbdaa9e5dd42c0696</t>
+          <t>d66c9164299ab76066cd3d883b2ad4bfe0c8f4c6</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>f08c8e6bf954497390c5cc140745b579</t>
+          <t>4b211f3c2cc9a1605db36043cb2b2e0e</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'f08c8e6bf954497390c5cc140745b579' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '4b211f3c2cc9a1605db36043cb2b2e0e' combination.</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AA5C39DE77F15A91ED580E7A0F132EB14C970235</t>
+          <t>eed7357ab8d2fe31ea3dbcf3f9b7ec74</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'eed7357ab8d2fe31ea3dbcf3f9b7ec74' combination.</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>B6ED9B2819915C2B57D4C58E37C08BA4</t>
+          <t>1d772f707ce74473996c377477ad718bba495fe7cd022d5b802aaf32c853f115</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'b6ed9b2819915c2b57d4c58e37c08ba4' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '1d772f707ce74473996c377477ad718bba495fe7cd022d5b802aaf32c853f115' combination.</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>185.250.148.74</t>
+          <t>3215decffc40b3257ebeb9b6e5c81c45e298a020f33ef90c9418c153c6071b36</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '185.250.148.74' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '3215decffc40b3257ebeb9b6e5c81c45e298a020f33ef90c9418c153c6071b36' combination.</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>46.105.81.76</t>
+          <t>95.181.152.184</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '46.105.81.76' combination.</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '95.181.152.184' combination.</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>86CBF834C23A31B6791E47B7C34B515555FDDAF4</t>
+          <t>7c76ca5eb757df4362fabb8cff1deaa92ebc31a17786c89bde55bc53ada43864</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '7c76ca5eb757df4362fabb8cff1deaa92ebc31a17786c89bde55bc53ada43864' combination.</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>privacytoolzforyou7000.top</t>
+          <t>9344afc63753cd5e2ee0ff9aed43dc56</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'domain' and value: 'privacytoolzforyou7000.top' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '9344afc63753cd5e2ee0ff9aed43dc56' combination.</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>e6c1b0f47b9240a8ce2aa9705c930c5dd5b98c046687158116637da10cafc493</t>
+          <t>f8c9cb79423380b18cbd03d9986766c95f9fd392</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'e6c1b0f47b9240a8ce2aa9705c930c5dd5b98c046687158116637da10cafc493' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4554DC95F99D6682595812B677FB131A7E7C51A71DAF461A57A57A0D903BB3FA</t>
+          <t>0f0cabb24d8cc93e5aed340cfc492c4008509f1e84311d61721a4375260a0911</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '4554dc95f99d6682595812b677fb131a7e7c51a71daf461a57a57a0d903bb3fa' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '0f0cabb24d8cc93e5aed340cfc492c4008509f1e84311d61721a4375260a0911' combination.</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>54753CA6879AB9F1D06264147CDF466B</t>
+          <t>4d2da36174633565f3dd5ed6dc5033c4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '54753ca6879ab9f1d06264147cdf466b' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '4d2da36174633565f3dd5ed6dc5033c4' combination.</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>E0FAFE1B4EB787444ED457DBF05895A4</t>
+          <t>91f8592c7e8a3091273f0ccbfe34b2586c5998f7de63130050cb8ed36b4eec3e</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'e0fafe1b4eb787444ed457dbf05895a4' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '91f8592c7e8a3091273f0ccbfe34b2586c5998f7de63130050cb8ed36b4eec3e' combination.</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2B32F3A1BCFCE9F6DB00CF4C0FEEB291F6514AEE</t>
+          <t>d3f4efc5d5343a54fabb94507d1197cb7e088a93</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>105.198.236.99</t>
+          <t>296c51eb03e70808304b5f0e050f4f94</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '105.198.236.99' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '296c51eb03e70808304b5f0e050f4f94' combination.</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>16B5B1494E211B74E97D9F35FF5A994F70411F2E</t>
+          <t>c010d1326689b95a3d8106f75003427c</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'c010d1326689b95a3d8106f75003427c' combination.</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>929A591331BDC1972357059D451A651D575166F676EA51DAAEB358AA2A1064B7</t>
+          <t>91.240.118.168</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '929a591331bdc1972357059d451a651d575166f676ea51daaeb358aa2a1064b7' combination.</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '91.240.118.168' combination.</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2F4085CB6A0B2DD4422F59894DCA5CF881EB8CCF</t>
+          <t>f2d41df1d55178b5f7de0512912159f2663296cd</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>24.229.150.54</t>
+          <t>ad29212716d0b074d976ad7e33b8f35f</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '24.229.150.54' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'ad29212716d0b074d976ad7e33b8f35f' combination.</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>17BB787FEE1B83990F47DDAEAA81EFC26F04457D</t>
+          <t>a9cf6dce244ad9afd8ca92820b9c11b9</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'a9cf6dce244ad9afd8ca92820b9c11b9' combination.</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>88834D17D2CDCE884A73E38638A4E0DD</t>
+          <t>dfcb2501be0a877c79c6abfb9cf17397</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '88834d17d2cdce884a73e38638a4e0dd' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'dfcb2501be0a877c79c6abfb9cf17397' combination.</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>88319E075EE9D7092A11A1E0237EE16C</t>
+          <t>1b23b966249a1da92300f3b857b40da8d8cd549a</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '88319e075ee9d7092a11a1e0237ee16c' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2336,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>FCC49C9BE5591F241FFD98DB0752CB9E20A97E881969537FBA5C513ADBD72814</t>
+          <t>695e343b81a7b0208cbae33e11f7044c</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'fcc49c9be5591f241ffd98db0752cb9e20a97e881969537fba5c513adbd72814' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '695e343b81a7b0208cbae33e11f7044c' combination.</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>56839287637B98F12187E61EA5626E21</t>
+          <t>956876902f17d6fabbcdbfeb38428a2b50045270</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '56839287637b98f12187e61ea5626e21' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>173.25.166.81</t>
+          <t>e0e4251386cdf8fe716d0779c3868e00d4ecc879</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '173.25.166.81' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>89.101.97.139</t>
+          <t>58f01d40edb624cecd22aab1ff139da9</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '89.101.97.139' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '58f01d40edb624cecd22aab1ff139da9' combination.</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2436,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>196.218.227.241</t>
+          <t>6d55f25222831cce73fd9a64a8e5a63b002522dc2637bd2704f77168c7c02d88</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '196.218.227.241' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '6d55f25222831cce73fd9a64a8e5a63b002522dc2637bd2704f77168c7c02d88' combination.</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5DD964C8D9025224EB658F96034BABEA</t>
+          <t>c13bf39e2f8bf49c9754de7fb1396a33</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '5dd964c8d9025224eb658f96034babea' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'c13bf39e2f8bf49c9754de7fb1396a33' combination.</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>privacy-toolz-for-you-403.top</t>
+          <t>618ea7b0e2a26f3c6db0a8664c63fc6f</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'domain' and value: 'privacy-toolz-for-you-403.top' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '618ea7b0e2a26f3c6db0a8664c63fc6f' combination.</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2511,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>6ABBD89E6AB5E1B63C38A8F78271A97D19BAFFF4959EA9D5BD5DA3B185EB61E6</t>
+          <t>a5c353d06ea4f59570429b5a7a2017204adb40a1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '6abbd89e6ab5e1b63c38a8f78271a97d19bafff4959ea9d5bd5da3b185eb61e6' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>AD413CD422C1A0355163618683E936A0</t>
+          <t>52b8ae74406e2f52fd81c8458647acd8</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'ad413cd422c1a0355163618683e936a0' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '52b8ae74406e2f52fd81c8458647acd8' combination.</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>43660D21BFA1431E0EE3426CD12DDF38</t>
+          <t>a6068f6f7acdff5de9ce992889a69e61033a1524</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '43660d21bfa1431e0ee3426cd12ddf38' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>privacytoolzforyou-6000.top</t>
+          <t>a77899602387665cddb6a0f021184a2b</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'domain' and value: 'privacytoolzforyou-6000.top' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'a77899602387665cddb6a0f021184a2b' combination.</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>68.204.7.158</t>
+          <t>48c2f53f1eeb669fadb3eec46f7f3d4572e819c7bb2d39f22d22713a30cc1846</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '68.204.7.158' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '48c2f53f1eeb669fadb3eec46f7f3d4572e819c7bb2d39f22d22713a30cc1846' combination.</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>56839287637B98F12187E61EA5626E21</t>
+          <t>0c524b45d37f4fe2c2ac378478516853</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '56839287637b98f12187e61ea5626e21' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '0c524b45d37f4fe2c2ac378478516853' combination.</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>9D12105B2E0055A86A3EA9F284718E2CE60D3E74</t>
+          <t>2de72908e0a1ef97e4e06d8b1ba3dc0d76f580cdf36f96b5c919bea770b2805f</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '2de72908e0a1ef97e4e06d8b1ba3dc0d76f580cdf36f96b5c919bea770b2805f' combination.</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>70A49561F39BB362A2EF79DB15E326812912C17D6E6EB38EF40343A95409A19A</t>
+          <t>11e35160fc4efabd0a3bd7a7c6afc91b</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '70a49561f39bb362a2ef79db15e326812912c17d6e6eb38ef40343a95409a19a' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '11e35160fc4efabd0a3bd7a7c6afc91b' combination.</t>
         </is>
       </c>
     </row>
@@ -2711,12 +2711,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>188776C2BDD001D6A57B1CFC7E156DD3</t>
+          <t>d742a33692a77f5caef5ea175957c98b56c2dc255144784ad3bade0a0d50d088</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '188776c2bdd001d6a57b1cfc7e156dd3' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'd742a33692a77f5caef5ea175957c98b56c2dc255144784ad3bade0a0d50d088' combination.</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7332A59679C7732855D11DFF20061A76</t>
+          <t>cd7034692d8f29f9146deb3641de7986</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '7332a59679c7732855d11dff20061a76' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'cd7034692d8f29f9146deb3641de7986' combination.</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>136.232.34.70</t>
+          <t>185.112.83.22</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '136.232.34.70' combination.</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '185.112.83.22' combination.</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>AAE0553B761E8BB3E58902A46CD98EE68310252734D1F8D9FD3B862AAB8ED5C9</t>
+          <t>9f22626232934970e4851467b7b746578f0f149984cd0e4e1a156b391727fac9</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'aae0553b761e8bb3e58902a46cd98ee68310252734d1f8d9fd3b862aab8ed5c9' combination.</t>
+          <t>severity: The 'severity' field must contain a valid severity. Allowed values: [informational low medium high critical].</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2811,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95.77.223.148</t>
+          <t>d2a15e76a4bfa7eb007a07fc8738edfb</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '95.77.223.148' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'd2a15e76a4bfa7eb007a07fc8738edfb' combination.</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>72.252.201.69</t>
+          <t>e2eb5b57a8765856be897b4f6dadca18</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '72.252.201.69' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'e2eb5b57a8765856be897b4f6dadca18' combination.</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>79A90C8BC6FD6179CB91D2EA2666124B</t>
+          <t>https://connecticutsfinestmovers.com/Fox-C/mVwOqxT17gVWaE8E/</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '79a90c8bc6fd6179cb91d2ea2666124b' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5FCA07DFC68A13B3707636440D5C416E56149357</t>
+          <t>5bd4987db7e6946bf2ca3f73e17d6f75e2d8217df63b2f7763ea9a6ebcaf9fed</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '5bd4987db7e6946bf2ca3f73e17d6f75e2d8217df63b2f7763ea9a6ebcaf9fed' combination.</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2615BD2173DAC44A6AD14702F3C93E67</t>
+          <t>df7befc8cdc3c5434ef27cc669fb1e4b</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '2615bd2173dac44a6ad14702f3c93e67' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'df7befc8cdc3c5434ef27cc669fb1e4b' combination.</t>
         </is>
       </c>
     </row>
@@ -2936,12 +2936,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EEF15F6416F756693CBFBFD8650CCB665771B54B4CC31CB09AEEA0D13EC640CF</t>
+          <t>a4bd130d0ea5e3ab8060464620e742a8</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'eef15f6416f756693cbfbfd8650ccb665771b54b4cc31cb09aeea0d13ec640cf' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'a4bd130d0ea5e3ab8060464620e742a8' combination.</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>5D3B7E0C05E65AA0DFC8B5E48142D782352E36BE</t>
+          <t>6590b5b2578da2374b846ae15a0307fa3ce33f33</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1411250EB56C55E274FBCF0741BBD3B5C917167D153779C7D8041AB2627EF95F</t>
+          <t>04256e521917757926de32e6b7405cc7</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '1411250eb56c55e274fbcf0741bbd3b5c917167d153779c7d8041ab2627ef95f' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '04256e521917757926de32e6b7405cc7' combination.</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3011,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>5ADBE8D0375D6531F1A523085F4DF4151AD1BD7AE539692E2CAA3D0D73301293</t>
+          <t>http://icfacn.com/runtime/n7qA2YStudp/</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '5adbe8d0375d6531f1a523085f4df4151ad1bd7ae539692e2caa3d0d73301293' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>21c2867e81b6f78c2fecba181c8bc7a51fc82a99</t>
+          <t>ee1fa399ace734c33b77c62b6fb010219580448f</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>af41c3193257d3cbd07e5a9e1cb6fd6011101a40</t>
+          <t>c90f32fd0fd4eefe752b7b3f7ebfbc7bd9092b16</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3086,12 +3086,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>304D8E812A8D988E21AF8A865D8DD577DC6F3134</t>
+          <t>e46bfbdf1031ea5a383040d0aa598d45</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'e46bfbdf1031ea5a383040d0aa598d45' combination.</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3111,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5bd8befa1fad2b4b7d2d67a52625e083799354e5</t>
+          <t>40e1656f65b472375735feef8d9d1197</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '40e1656f65b472375735feef8d9d1197' combination.</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BF7B5F72B2055CFC8DA01BB48CF5AE8E45E523860E0B23A65B9F14DBDBB7F4EE</t>
+          <t>185.206.212.165</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'bf7b5f72b2055cfc8da01bb48cf5ae8e45e523860e0b23a65b9f14dbdbb7f4ee' combination.</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '185.206.212.165' combination.</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>24.139.72.117</t>
+          <t>2ced68e4425d31cca494557c29a76dfc3081f594ff01549e41d2f8a08923ef61</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '24.139.72.117' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '2ced68e4425d31cca494557c29a76dfc3081f594ff01549e41d2f8a08923ef61' combination.</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3186,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>47.22.148.6</t>
+          <t>659b77f88288b4874b5abe41ed36380d</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '47.22.148.6' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '659b77f88288b4874b5abe41ed36380d' combination.</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>495388cc2be9ad2ac6555dcc1711a9e84a43dd373e1f27629a2e335c43abcfbb</t>
+          <t>https://krezol-group.com:443/images/PmLGLKYeCBs5d/</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '495388cc2be9ad2ac6555dcc1711a9e84a43dd373e1f27629a2e335c43abcfbb' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>120.150.218.241</t>
+          <t>ae6fbc60ba9c0f3a0fef72aeffcd3dc7</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '120.150.218.241' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'ae6fbc60ba9c0f3a0fef72aeffcd3dc7' combination.</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>46c6f2719d05edb434a831e82bcaf1827cad665d</t>
+          <t>http://ledcaopingdeng.com/wp-includes/Qq39yj7fpvk/</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>65202b343ccc9753d39f3cb2ff1436ac17a9fb88a6e296ef166e64e6e3b7daea</t>
+          <t>8dfa48e56fc3a6a2272771e708cdb4d2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '65202b343ccc9753d39f3cb2ff1436ac17a9fb88a6e296ef166e64e6e3b7daea' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '8dfa48e56fc3a6a2272771e708cdb4d2' combination.</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>c8d0aec9e1e1d2fec33726b24ea7675484127bef</t>
+          <t>b8e24e6436f6bed17757d011780e87b9</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: 'b8e24e6436f6bed17757d011780e87b9' combination.</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>24e955ba66911deab068c74fa9956a259ad041ba</t>
+          <t>http://autodiscover.karlamejia.com/wp-admin/hcdnVlRIiwvTVrJjJEE/</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>03E96FC686CC15A0BB26186ECB4FE63E6B841C4B</t>
+          <t>44baa1595e5294ad4464a2cd567b2b6e</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '44baa1595e5294ad4464a2cd567b2b6e' combination.</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>173.21.10.71</t>
+          <t>65.21.105.85</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '173.21.10.71' combination.</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '65.21.105.85' combination.</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>71d721dfbd6c375c327a8470f0664b53cfce5f50303145bbd5f837ffd8b48a6a</t>
+          <t>095c223b94656622c81cb9386aefa59e168756c3e200457e98c00b609e0bb170</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '71d721dfbd6c375c327a8470f0664b53cfce5f50303145bbd5f837ffd8b48a6a' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '095c223b94656622c81cb9386aefa59e168756c3e200457e98c00b609e0bb170' combination.</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>E510566244A899D6A427C1648E680A2310C170A5F25AFF53B15D8DE52CA11767</t>
+          <t>dcaaef3509bc75155789058d79f025f14166386cec833c2c154ca34cfea26c52</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'e510566244a899d6a427c1648e680a2310c170a5f25aff53b15d8de52ca11767' combination.</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'dcaaef3509bc75155789058d79f025f14166386cec833c2c154ca34cfea26c52' combination.</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>17BB787FEE1B83990F47DDAEAA81EFC26F04457D</t>
+          <t>51f2cf541f004d3c1fa8b0f94c89914a</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '51f2cf541f004d3c1fa8b0f94c89914a' combination.</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>A0538746CE241A518E3A056789EA60671F626613DD92F3CAA5A95E92E65357B3</t>
+          <t>8320d9ec2eab7f5ff49186b2e630a15f</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'a0538746ce241a518e3a056789ea60671f626613dd92f3caa5a95e92e65357b3' combination.</t>
+          <t>Warning: Duplicate type: 'md5' and value: '8320d9ec2eab7f5ff49186b2e630a15f' combination.</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>F94D5BF14DEE6A6E8DB957D49C259082DD82350B</t>
+          <t>1473c91e9c0588f92928bed0ebf5e0f4</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '1473c91e9c0588f92928bed0ebf5e0f4' combination.</t>
         </is>
       </c>
     </row>
@@ -3536,12 +3536,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>353A21B3835AC7C17A82AF79302D23CC</t>
+          <t>91.240.118.168</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '353a21b3835ac7c17a82af79302d23cc' combination.</t>
+          <t>Warning: Duplicate type: 'ipv4' and value: '91.240.118.168' combination.</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>privacy-tools-for-you-777.com</t>
+          <t>http://artanddesign.one/wp-content/uploads/A2cZL7/</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3576,257 +3576,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'domain' and value: 'privacy-tools-for-you-777.com' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2A8CF6154E6A129FFD07A501BBC0B098</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'md5' and value: '2a8cf6154e6a129ffd07a501bbc0b098' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>ipv4</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>45.46.53.140</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '45.46.53.140' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>850ba59403825d4feebbff0112c448143ebe8b872040e7383f201b9b101ae4bc</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '850ba59403825d4feebbff0112c448143ebe8b872040e7383f201b9b101ae4bc' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>0b16c4d406c5b85aa372f6d14fe1ed28</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'md5' and value: '0b16c4d406c5b85aa372f6d14fe1ed28' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>B5B264D00A7D6D6B3DD4965DBE2BD00E0823BA6C</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
           <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>SHA-1</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>A295F15F38F8D4E83B5DB8F51ADDAE2D2DF328DD</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Type is not valid</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>000DF43B256CDC27BB22870919BB1DFA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'md5' and value: '000df43b256cdc27bb22870919bb1dfa' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>MD5</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>09a2ab61f1a4bf561025dd98473c4309</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'md5' and value: '09a2ab61f1a4bf561025dd98473c4309' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>SHA256</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>F9246BE51464E71FF6B37975CD44359E8576F2BF03CB4028E536D7CFDE3508FC</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'f9246be51464e71ff6b37975cd44359e8576f2bf03cb4028e536d7cfde3508fc' combination.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ipv4</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>185.7.214.7</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '185.7.214.7' combination.</t>
         </is>
       </c>
     </row>

--- a/app/src/data/resultat.xlsx
+++ b/app/src/data/resultat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Added</t>
+          <t>Updated</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>e837f252af30cc222a1bce815e609a7354e1f9c814baefbb5d45e32a10563759</t>
+          <t>929A591331BDC1972357059D451A651D575166F676EA51DAAEB358AA2A1064B7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>severity: The 'severity' field must contain a valid severity. Allowed values: [informational low medium high critical].</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>959a7df5c465fcd963a641d87c18a565</t>
+          <t>A295F15F38F8D4E83B5DB8F51ADDAE2D2DF328DD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '959a7df5c465fcd963a641d87c18a565' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>91.206.14.151</t>
+          <t>850ba59403825d4feebbff0112c448143ebe8b872040e7383f201b9b101ae4bc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '91.206.14.151' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bbed408b87701b0132e26570fb9fa94cb4bd9ab7</t>
+          <t>privacytoolzforyou-6000.top</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Not found in CrowdStrike</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5c0a549ae45d9abe54ab662e53c484e2</t>
+          <t>privacy-toolz-for-you-403.top</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>severity: The 'severity' field must contain a valid severity. Allowed values: [informational low medium high critical].</t>
+          <t>Not found in CrowdStrike</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1df11bc19aa52b623bdf15380e3fded56d8eb6fb7b53a2240779864b1a6474ad</t>
+          <t>ec471e89fa74c32dc6e0fbccbdaa9e5dd42c0696</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '1df11bc19aa52b623bdf15380e3fded56d8eb6fb7b53a2240779864b1a6474ad' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2d2030dee51b98bdeb397cfb93f897a5</t>
+          <t>196.218.227.241</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '2d2030dee51b98bdeb397cfb93f897a5' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>632f1c77337cca803467f7d368233cc59e9f0c6a</t>
+          <t>6ABBD89E6AB5E1B63C38A8F78271A97D19BAFFF4959EA9D5BD5DA3B185EB61E6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5de37c17703e9b8d76222a30f2b1da22</t>
+          <t>27.223.92.142</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '5de37c17703e9b8d76222a30f2b1da22' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31d223c813a592422461f0d6707ba571</t>
+          <t>http://185.7.214.7/fer/fer.png</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '31d223c813a592422461f0d6707ba571' combination.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>213.226.71.125</t>
+          <t>e6c1b0f47b9240a8ce2aa9705c930c5dd5b98c046687158116637da10cafc493</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '213.226.71.125' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>43f46a66c821e143d77f9311b24314b5c5eeccfedbb3fbf1cd484c9e4f537a5d</t>
+          <t>privacytoolzforyou6000.top</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '43f46a66c821e143d77f9311b24314b5c5eeccfedbb3fbf1cd484c9e4f537a5d' combination.</t>
+          <t>Not found in CrowdStrike</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>040a4985172c82474459b384fe9269922ac0b98e</t>
+          <t>http://46.105.81.76/cc.png</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://crmweb.info:443/bitrix/rc9XjtwF/</t>
+          <t>76.25.142.196</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>185.112.83.96</t>
+          <t>79A90C8BC6FD6179CB91D2EA2666124B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '185.112.83.96' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://accessunited-bank.com/admin/hzIgVwq8btak/</t>
+          <t>73.151.236.31</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>d63a7756bfdcd2be6c755bf288a92c8b</t>
+          <t>2615BD2173DAC44A6AD14702F3C93E67</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'd63a7756bfdcd2be6c755bf288a92c8b' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>54270176a3484672055a816d13df613b5b614e0c</t>
+          <t>7332A59679C7732855D11DFF20061A76</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://pigij.com/wp-admin/MVW5/</t>
+          <t>495388cc2be9ad2ac6555dcc1711a9e84a43dd373e1f27629a2e335c43abcfbb</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>95e2fa71574c0cecbe15cf8fb4877bd97ce30ed0</t>
+          <t>21c2867e81b6f78c2fecba181c8bc7a51fc82a99</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0527026e0dc249e11533213908e979ab</t>
+          <t>AA5C39DE77F15A91ED580E7A0F132EB14C970235</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '0527026e0dc249e11533213908e979ab' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ebb4c466a74b28546c04a94a28df781c80ad9c75</t>
+          <t>a679d50a9d3a7d63704e33177f59bab9e4357be02ca916beab97f8b9daca29d8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1785f4058c78ae3dd030808212ae3b04</t>
+          <t>acfd5ff345a01a7107b63100a930c2a63fbd50aac738c6e8207eeb7c3cfcdcb5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '1785f4058c78ae3dd030808212ae3b04' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>96d9b8d6658149ca78b2dc13e3f63bcd2dd87667</t>
+          <t>CA564C6702D5E653ED8421349F4D37795D944793A3DBD1BB3C5DBC5732F1B798</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1066,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>b8293f2296ac09663e27759a39431fd6</t>
+          <t>AD413CD422C1A0355163618683E936A0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'b8293f2296ac09663e27759a39431fd6' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>f3574a47570cccebb1c502287e21218277ffc589</t>
+          <t>F615ED88710B54131443555EE7F7EA97</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>d4aa276a7fbe8dcd858174eeacbb26ce</t>
+          <t>BDF78C3E348A197847919EB1EDDA12E080072FAA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'd4aa276a7fbe8dcd858174eeacbb26ce' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>d9e94f076d175ace80f211ea298fa46e</t>
+          <t>5FCA07DFC68A13B3707636440D5C416E56149357</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'd9e94f076d175ace80f211ea298fa46e' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1166,17 +1166,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ddf039c3d6395139fd7f31b0a796a444f385c582ca978779aae7314b19940812</t>
+          <t>65202b343ccc9753d39f3cb2ff1436ac17a9fb88a6e296ef166e64e6e3b7daea</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'ddf039c3d6395139fd7f31b0a796a444f385c582ca978779aae7314b19940812' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1191,17 +1191,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7139415fecd716bec6d38d2004176f5d</t>
+          <t>188776C2BDD001D6A57B1CFC7E156DD3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '7139415fecd716bec6d38d2004176f5d' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ef3e0845b289f1d3b5b234b0507c554dfdd23a5b77f36d433489129ea722c6bb</t>
+          <t>92.59.35.196</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'ef3e0845b289f1d3b5b234b0507c554dfdd23a5b77f36d433489129ea722c6bb' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31f818372fa07d1fd158c91510b6a077</t>
+          <t>CFDF141404D8783F2C6181D185B3E1AD107E4169</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '31f818372fa07d1fd158c91510b6a077' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>http://strawberry.kids-singer.net/assets_c/WAdvNT84Dmu/</t>
+          <t>EEE7C801BE1C21FA4791BBE9958EE68C66165B53</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5f40e1859053b70df9c0753d327f2cee</t>
+          <t>af41c3193257d3cbd07e5a9e1cb6fd6011101a40</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '5f40e1859053b70df9c0753d327f2cee' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://eleccom.shop:443/services/AEjSDj/</t>
+          <t>9D12105B2E0055A86A3EA9F284718E2CE60D3E74</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4ce0bdd2d4303bf77611b8b34c7d2883</t>
+          <t>17BB787FEE1B83990F47DDAEAA81EFC26F04457D</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '4ce0bdd2d4303bf77611b8b34c7d2883' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1361,22 +1361,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>54d36e5dce2e546070dc0571c8b3e166d6df62296fa0609a325ace23b7105335</t>
+          <t>684d87809604a15d9f49bd5dee29fb6e</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '54d36e5dce2e546070dc0571c8b3e166d6df62296fa0609a325ace23b7105335' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8c4294e3154675cd926ab6b772dbbe0e7a49cae16f4a37d908e1ca6748251c43</t>
+          <t>06BE4CE3AEAE146A062B983CE21DD42B08CBA908A69958729E758BC41836735C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '8c4294e3154675cd926ab6b772dbbe0e7a49cae16f4a37d908e1ca6748251c43' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1411,22 +1411,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://izocab.com/nashi-klienty/B5SC/</t>
+          <t>0b16c4d406c5b85aa372f6d14fe1ed28</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>58e8043876f2f302fbc98d00c270778b</t>
+          <t>189.210.115.207</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '58e8043876f2f302fbc98d00c270778b' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>526215dda9d0e85bcb6bce827f3f85d2</t>
+          <t>f82332b945a2ed02ad8edd45c90e0a7d8ba2193f</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '526215dda9d0e85bcb6bce827f3f85d2' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>38cd6b79c832b575aa04221e608cbb7e</t>
+          <t>7BD85FEE9A79D2AAD47AC9F299B12FE0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>severity: The 'severity' field must contain a valid severity. Allowed values: [informational low medium high critical].</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>e479a80de91ef78dbbf7f46363e59828</t>
+          <t>4ED7609CBB86EA0B7607B8A002E7F85B316903C3B6801240C9576AAE8B3052FF</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'e479a80de91ef78dbbf7f46363e59828' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>cea6be26d81a8ff3db0d9da666cd0f8f</t>
+          <t>D836FA75F0682B4C393418231AEFCA97169D551E</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'cea6be26d81a8ff3db0d9da666cd0f8f' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0c7b8da133799dd72d0dbe3ea012031e</t>
+          <t>eb00f5ad5cdb3e202378f32c5e135f2a</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '0c7b8da133799dd72d0dbe3ea012031e' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3d1fb09a9a05ab6cf83c4e7cdf5fe40e67064063</t>
+          <t>105.198.236.99</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>28b791746c97c0c04dcbfe0954e7173b</t>
+          <t>2F4085CB6A0B2DD4422F59894DCA5CF881EB8CCF</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '28b791746c97c0c04dcbfe0954e7173b' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>d9e94f076d175ace80f211ea298fa46e</t>
+          <t>2b8080284c0611ec7288a6d3e34a545f</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'd9e94f076d175ace80f211ea298fa46e' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5cc861346ab9f1980a919f70671894e8</t>
+          <t>71d721dfbd6c375c327a8470f0664b53cfce5f50303145bbd5f837ffd8b48a6a</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '5cc861346ab9f1980a919f70671894e8' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>http://hotelamerpalace.com/Fox-C404/LEPqPJpt4Gbr8BHAn/</t>
+          <t>47.22.148.6</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9bda03babb0f2c6aa9861eca95b33af06a650e2851cce4edcc1fc3abd8e7c2a1</t>
+          <t>24.55.112.61</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '9bda03babb0f2c6aa9861eca95b33af06a650e2851cce4edcc1fc3abd8e7c2a1' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>http://unifiedpharma.com/wp-content/5arxM/</t>
+          <t>17BB787FEE1B83990F47DDAEAA81EFC26F04457D</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1761,22 +1761,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>151c6f04aeff0e00c54929f25328f6f7</t>
+          <t>a66c2a67287a0781e18305076359a30a9bd5b23683feecc5ff7e82a01383e2b8</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '151c6f04aeff0e00c54929f25328f6f7' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>405cb8b1e55bb2a50f2ef3e7c2b28496</t>
+          <t>46c6f2719d05edb434a831e82bcaf1827cad665d</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '405cb8b1e55bb2a50f2ef3e7c2b28496' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1811,12 +1811,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>d66c9164299ab76066cd3d883b2ad4bfe0c8f4c6</t>
+          <t>privacy-tools-for-you-777.com</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Not found in CrowdStrike</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4b211f3c2cc9a1605db36043cb2b2e0e</t>
+          <t>4554DC95F99D6682595812B677FB131A7E7C51A71DAF461A57A57A0D903BB3FA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '4b211f3c2cc9a1605db36043cb2b2e0e' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>eed7357ab8d2fe31ea3dbcf3f9b7ec74</t>
+          <t>CBFC135BFF84D63C4A0CCB5102CFA17D8C9BF297079F3B2F1371DAFCBEFEA77C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'eed7357ab8d2fe31ea3dbcf3f9b7ec74' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1d772f707ce74473996c377477ad718bba495fe7cd022d5b802aaf32c853f115</t>
+          <t>95.77.223.148</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '1d772f707ce74473996c377477ad718bba495fe7cd022d5b802aaf32c853f115' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3215decffc40b3257ebeb9b6e5c81c45e298a020f33ef90c9418c153c6071b36</t>
+          <t>de3dc22cc6f9cfd7670517be6ad18f78f79e6248c32d2ff5af91224e837c9bd3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '3215decffc40b3257ebeb9b6e5c81c45e298a020f33ef90c9418c153c6071b36' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>95.181.152.184</t>
+          <t>e4fbc46e6bf2830db3bbeac7ac96fe97b4ba8444</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '95.181.152.184' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7c76ca5eb757df4362fabb8cff1deaa92ebc31a17786c89bde55bc53ada43864</t>
+          <t>5ADBE8D0375D6531F1A523085F4DF4151AD1BD7AE539692E2CAA3D0D73301293</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '7c76ca5eb757df4362fabb8cff1deaa92ebc31a17786c89bde55bc53ada43864' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>9344afc63753cd5e2ee0ff9aed43dc56</t>
+          <t>68.186.192.69</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '9344afc63753cd5e2ee0ff9aed43dc56' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>f8c9cb79423380b18cbd03d9986766c95f9fd392</t>
+          <t>54a77b0fc778a24e4214ad725734328e</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0f0cabb24d8cc93e5aed340cfc492c4008509f1e84311d61721a4375260a0911</t>
+          <t>E8676686A42D6D5EB7957439297E288BFE5188B6</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '0f0cabb24d8cc93e5aed340cfc492c4008509f1e84311d61721a4375260a0911' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4d2da36174633565f3dd5ed6dc5033c4</t>
+          <t>89.101.97.139</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '4d2da36174633565f3dd5ed6dc5033c4' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>91f8592c7e8a3091273f0ccbfe34b2586c5998f7de63130050cb8ed36b4eec3e</t>
+          <t>173.25.166.81</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '91f8592c7e8a3091273f0ccbfe34b2586c5998f7de63130050cb8ed36b4eec3e' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>d3f4efc5d5343a54fabb94507d1197cb7e088a93</t>
+          <t>56839287637B98F12187E61EA5626E21</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2141,17 +2141,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>296c51eb03e70808304b5f0e050f4f94</t>
+          <t>2A8CF6154E6A129FFD07A501BBC0B098</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '296c51eb03e70808304b5f0e050f4f94' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2166,17 +2166,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>c010d1326689b95a3d8106f75003427c</t>
+          <t>000DF43B256CDC27BB22870919BB1DFA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'c010d1326689b95a3d8106f75003427c' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>91.240.118.168</t>
+          <t>3D913A4BA5C4F7810EC6B418D7A07B6207B60E740DDE8AED3E2DF9DDF1CAAB27</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '91.240.118.168' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>f2d41df1d55178b5f7de0512912159f2663296cd</t>
+          <t>140.82.49.12</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ad29212716d0b074d976ad7e33b8f35f</t>
+          <t>120.150.218.241</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'ad29212716d0b074d976ad7e33b8f35f' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>Domain</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>a9cf6dce244ad9afd8ca92820b9c11b9</t>
+          <t>privacytoolzforyou7000.top</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'a9cf6dce244ad9afd8ca92820b9c11b9' combination.</t>
+          <t>Not found in CrowdStrike</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>dfcb2501be0a877c79c6abfb9cf17397</t>
+          <t>F9246BE51464E71FF6B37975CD44359E8576F2BF03CB4028E536D7CFDE3508FC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'dfcb2501be0a877c79c6abfb9cf17397' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1b23b966249a1da92300f3b857b40da8d8cd549a</t>
+          <t>2F4085CB6A0B2DD4422F59894DCA5CF881EB8CCF</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2341,17 +2341,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>695e343b81a7b0208cbae33e11f7044c</t>
+          <t>2897721785645AD5B2A8FB524ED650C0</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '695e343b81a7b0208cbae33e11f7044c' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>956876902f17d6fabbcdbfeb38428a2b50045270</t>
+          <t>71.74.12.34</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2386,22 +2386,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>e0e4251386cdf8fe716d0779c3868e00d4ecc879</t>
+          <t>14E7CC2EADC7C9BAC1930F37E25303212C8974674B21ED052A483727836A5E43</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>58f01d40edb624cecd22aab1ff139da9</t>
+          <t>24.229.150.54</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '58f01d40edb624cecd22aab1ff139da9' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2436,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>6d55f25222831cce73fd9a64a8e5a63b002522dc2637bd2704f77168c7c02d88</t>
+          <t>6C526A28ED49B2EF83548E20A71610877E69D450</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '6d55f25222831cce73fd9a64a8e5a63b002522dc2637bd2704f77168c7c02d88' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>c13bf39e2f8bf49c9754de7fb1396a33</t>
+          <t>EEF15F6416F756693CBFBFD8650CCB665771B54B4CC31CB09AEEA0D13EC640CF</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'c13bf39e2f8bf49c9754de7fb1396a33' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>618ea7b0e2a26f3c6db0a8664c63fc6f</t>
+          <t>C789BB45CACF0DE1720E707F9EDD73B4ED0EDC958B3CE2D8F0AD5D4A7596923A</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '618ea7b0e2a26f3c6db0a8664c63fc6f' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>a5c353d06ea4f59570429b5a7a2017204adb40a1</t>
+          <t>1411250EB56C55E274FBCF0741BBD3B5C917167D153779C7D8041AB2627EF95F</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>52b8ae74406e2f52fd81c8458647acd8</t>
+          <t>BF7B5F72B2055CFC8DA01BB48CF5AE8E45E523860E0B23A65B9F14DBDBB7F4EE</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '52b8ae74406e2f52fd81c8458647acd8' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>a6068f6f7acdff5de9ce992889a69e61033a1524</t>
+          <t>86CBF834C23A31B6791E47B7C34B515555FDDAF4</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2586,12 +2586,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>a77899602387665cddb6a0f021184a2b</t>
+          <t>2B32F3A1BCFCE9F6DB00CF4C0FEEB291F6514AEE</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'a77899602387665cddb6a0f021184a2b' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2611,22 +2611,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>48c2f53f1eeb669fadb3eec46f7f3d4572e819c7bb2d39f22d22713a30cc1846</t>
+          <t>B595A580FDFE1308B47CF07805C81C32</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '48c2f53f1eeb669fadb3eec46f7f3d4572e819c7bb2d39f22d22713a30cc1846' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0c524b45d37f4fe2c2ac378478516853</t>
+          <t>88319E075EE9D7092A11A1E0237EE16C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '0c524b45d37f4fe2c2ac378478516853' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2666,17 +2666,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2de72908e0a1ef97e4e06d8b1ba3dc0d76f580cdf36f96b5c919bea770b2805f</t>
+          <t>956ECB4AFA437EAFE56F958B34B6A78303AD626BAEE004715DC6634B7546BF85</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '2de72908e0a1ef97e4e06d8b1ba3dc0d76f580cdf36f96b5c919bea770b2805f' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2691,17 +2691,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>11e35160fc4efabd0a3bd7a7c6afc91b</t>
+          <t>E0FAFE1B4EB787444ED457DBF05895A4</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '11e35160fc4efabd0a3bd7a7c6afc91b' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2711,12 +2711,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>d742a33692a77f5caef5ea175957c98b56c2dc255144784ad3bade0a0d50d088</t>
+          <t>16B5B1494E211B74E97D9F35FF5A994F70411F2E</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'd742a33692a77f5caef5ea175957c98b56c2dc255144784ad3bade0a0d50d088' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>cd7034692d8f29f9146deb3641de7986</t>
+          <t>304D8E812A8D988E21AF8A865D8DD577DC6F3134</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'cd7034692d8f29f9146deb3641de7986' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>185.112.83.22</t>
+          <t>5bd8befa1fad2b4b7d2d67a52625e083799354e5</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '185.112.83.22' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9f22626232934970e4851467b7b746578f0f149984cd0e4e1a156b391727fac9</t>
+          <t>BAACFE8643EC95C12277961DABB411F2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>severity: The 'severity' field must contain a valid severity. Allowed values: [informational low medium high critical].</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>d2a15e76a4bfa7eb007a07fc8738edfb</t>
+          <t>5DD964C8D9025224EB658F96034BABEA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'd2a15e76a4bfa7eb007a07fc8738edfb' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>e2eb5b57a8765856be897b4f6dadca18</t>
+          <t>E510566244A899D6A427C1648E680A2310C170A5F25AFF53B15D8DE52CA11767</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'e2eb5b57a8765856be897b4f6dadca18' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2861,22 +2861,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://connecticutsfinestmovers.com/Fox-C/mVwOqxT17gVWaE8E/</t>
+          <t>3468b31f47a557fa45e096b6a212501f</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2891,17 +2891,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5bd4987db7e6946bf2ca3f73e17d6f75e2d8217df63b2f7763ea9a6ebcaf9fed</t>
+          <t>9F6E3B0B18F994950B40076D1386B4DA4CE0F1F973B129B32B363AAC4A678631</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '5bd4987db7e6946bf2ca3f73e17d6f75e2d8217df63b2f7763ea9a6ebcaf9fed' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>df7befc8cdc3c5434ef27cc669fb1e4b</t>
+          <t>45.46.53.140</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'df7befc8cdc3c5434ef27cc669fb1e4b' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2936,12 +2936,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>a4bd130d0ea5e3ab8060464620e742a8</t>
+          <t>3D78C842B16AC7EAF3D9A092F4BDA00ABF3378E5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'a4bd130d0ea5e3ab8060464620e742a8' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -2961,22 +2961,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>6590b5b2578da2374b846ae15a0307fa3ce33f33</t>
+          <t>B6ED9B2819915C2B57D4C58E37C08BA4</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -2986,12 +2986,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>04256e521917757926de32e6b7405cc7</t>
+          <t>185.250.148.74</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '04256e521917757926de32e6b7405cc7' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3011,22 +3011,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>http://icfacn.com/runtime/n7qA2YStudp/</t>
+          <t>56839287637B98F12187E61EA5626E21</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SHA-1</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ee1fa399ace734c33b77c62b6fb010219580448f</t>
+          <t>09a2ab61f1a4bf561025dd98473c4309</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>c90f32fd0fd4eefe752b7b3f7ebfbc7bd9092b16</t>
+          <t>E9FF9B7E144BDAD9D8955F4A328F7B6DAA2B455E</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3086,12 +3086,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>e46bfbdf1031ea5a383040d0aa598d45</t>
+          <t>136.232.34.70</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'e46bfbdf1031ea5a383040d0aa598d45' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3111,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>40e1656f65b472375735feef8d9d1197</t>
+          <t>173.21.10.71</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '40e1656f65b472375735feef8d9d1197' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>185.206.212.165</t>
+          <t>5D3B7E0C05E65AA0DFC8B5E48142D782352E36BE</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '185.206.212.165' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2ced68e4425d31cca494557c29a76dfc3081f594ff01549e41d2f8a08923ef61</t>
+          <t>82.77.137.101</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '2ced68e4425d31cca494557c29a76dfc3081f594ff01549e41d2f8a08923ef61' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3186,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>659b77f88288b4874b5abe41ed36380d</t>
+          <t>B5B264D00A7D6D6B3DD4965DBE2BD00E0823BA6C</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '659b77f88288b4874b5abe41ed36380d' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3211,22 +3211,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://krezol-group.com:443/images/PmLGLKYeCBs5d/</t>
+          <t>43660D21BFA1431E0EE3426CD12DDF38</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ae6fbc60ba9c0f3a0fef72aeffcd3dc7</t>
+          <t>70A49561F39BB362A2EF79DB15E326812912C17D6E6EB38EF40343A95409A19A</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'ae6fbc60ba9c0f3a0fef72aeffcd3dc7' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>http://ledcaopingdeng.com/wp-includes/Qq39yj7fpvk/</t>
+          <t>24e955ba66911deab068c74fa9956a259ad041ba</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>8dfa48e56fc3a6a2272771e708cdb4d2</t>
+          <t>2.56.59.42</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '8dfa48e56fc3a6a2272771e708cdb4d2' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>b8e24e6436f6bed17757d011780e87b9</t>
+          <t>c8d0aec9e1e1d2fec33726b24ea7675484127bef</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: 'b8e24e6436f6bed17757d011780e87b9' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>MD5</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>http://autodiscover.karlamejia.com/wp-admin/hcdnVlRIiwvTVrJjJEE/</t>
+          <t>54753CA6879AB9F1D06264147CDF466B</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Type is not valid</t>
+          <t>Not found in CrowdStrike</t>
         </is>
       </c>
     </row>
@@ -3366,17 +3366,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>44baa1595e5294ad4464a2cd567b2b6e</t>
+          <t>1535ea76379a3adb0a99d90f49af3801</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '44baa1595e5294ad4464a2cd567b2b6e' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>65.21.105.85</t>
+          <t>http://185.7.214.7/fer/fer.html</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '65.21.105.85' combination.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>095c223b94656622c81cb9386aefa59e168756c3e200457e98c00b609e0bb170</t>
+          <t>http://46.105.81.76/c.html</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: '095c223b94656622c81cb9386aefa59e168756c3e200457e98c00b609e0bb170' combination.</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SHA256</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>dcaaef3509bc75155789058d79f025f14166386cec833c2c154ca34cfea26c52</t>
+          <t>F94D5BF14DEE6A6E8DB957D49C259082DD82350B</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'sha256' and value: 'dcaaef3509bc75155789058d79f025f14166386cec833c2c154ca34cfea26c52' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>SHA256</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>51f2cf541f004d3c1fa8b0f94c89914a</t>
+          <t>FCC49C9BE5591F241FFD98DB0752CB9E20A97E881969537FBA5C513ADBD72814</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '51f2cf541f004d3c1fa8b0f94c89914a' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -3491,17 +3491,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>8320d9ec2eab7f5ff49186b2e630a15f</t>
+          <t>353A21B3835AC7C17A82AF79302D23CC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '8320d9ec2eab7f5ff49186b2e630a15f' combination.</t>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MD5</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1473c91e9c0588f92928bed0ebf5e0f4</t>
+          <t>75.188.35.168</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'md5' and value: '1473c91e9c0588f92928bed0ebf5e0f4' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3536,12 +3536,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>SHA-1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>91.240.118.168</t>
+          <t>03E96FC686CC15A0BB26186ECB4FE63E6B841C4B</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Warning: Duplicate type: 'ipv4' and value: '91.240.118.168' combination.</t>
+          <t>Type is not valid</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>IP Address</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>http://artanddesign.one/wp-content/uploads/A2cZL7/</t>
+          <t>72.252.201.69</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +3577,256 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>AAE0553B761E8BB3E58902A46CD98EE68310252734D1F8D9FD3B862AAB8ED5C9</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Not found in CrowdStrike</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>24.139.72.117</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>109.12.111.14</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>68.204.7.158</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Type is not valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>f08c8e6bf954497390c5cc140745b579</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Hash correctly updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2615BD2173DAC44A6AD14702F3C93E67</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Hash correctly updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>F7205F07677F0A0995CB232E3CBC7F73</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Hash correctly updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>FCC49C9BE5591F241FFD98DB0752CB9E20A97E881969537FBA5C513ADBD72814</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Hash correctly updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MD5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>88834D17D2CDCE884A73E38638A4E0DD</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Hash correctly updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SHA256</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A0538746CE241A518E3A056789EA60671F626613DD92F3CAA5A95E92E65357B3</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Hash correctly updated</t>
         </is>
       </c>
     </row>

--- a/app/src/data/resultat.xlsx
+++ b/app/src/data/resultat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Description</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Campaign</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -466,17 +471,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>b63e841ded736bca23097e91f1f04d44a3f3fdd98878e9ef2a015a09950775c8</t>
+          <t>fa6f5695ac2530b486fdd6fe8096aaaf65081bc092ab874545628c61e1403919</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'fa6f5695ac2530b486fdd6fe8096aaaf65081bc092ab874545628c61e1403919' combination.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -486,22 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4869c3d443bae76b20758f297eb3110e316396e17d95511483b99df5e7689fa0</t>
+          <t>wikidreamers.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>domain correctly added</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Domains</t>
         </is>
       </c>
     </row>
@@ -511,22 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2abf6060c8a61d7379adfb8218b56003765c1a1e701b346556ca5d53068892a5</t>
+          <t>fc0ed719cb42e30dddfebf3ea70ff034</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -536,22 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15fab4cbd295fc49da2bef5c9cd01763</t>
+          <t>galmerts.art</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>domain correctly added</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Domains</t>
         </is>
       </c>
     </row>
@@ -561,22 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>215618a477047bae4cd7ccbd29ae5bf94e74328b</t>
+          <t>d2eae5179ec0b54f1082449470a7a175</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -586,22 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7c0fe3841af72d55b55bc248167665da5a9036c972acb9a9ac0a7a21db016cc6</t>
+          <t>marualosa.top</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>domain correctly added</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Domains</t>
         </is>
       </c>
     </row>
@@ -611,12 +646,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5e0a6934762dc1180cae02bcf420525a66d21579</t>
+          <t>65e551f7093299a9a20eaf536197c19abbdd51b95b9570edac4950d7c951ad92</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -626,7 +661,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '65e551f7093299a9a20eaf536197c19abbdd51b95b9570edac4950d7c951ad92' combination.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -636,22 +676,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9b8e35d724060ddc625442ac12d08d77c9afe256</t>
+          <t>kikipi.art</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>domain correctly added</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Domains</t>
         </is>
       </c>
     </row>
@@ -661,24 +706,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04ab1bffe129be94c6fab24f9ae53556</t>
+          <t>2755c6a10d49fb530a6bb5a2a6133bcdd57c9813</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -691,17 +737,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7785efeeb495ab10414e1f7e4850d248eddce6be91738d515e8b90d344ed820d</t>
+          <t>c362d9eefafb44d4116b4dfabd5945e974c8a010221705e021490efbf34bc3a3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'c362d9eefafb44d4116b4dfabd5945e974c8a010221705e021490efbf34bc3a3' combination.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -711,22 +762,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>70f2e9a90ef8aa2d98486f0241a3118a</t>
+          <t>d270e1ca349daa668e0807be65eca75cc739008a39e283f922a8728c22663417</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'd270e1ca349daa668e0807be65eca75cc739008a39e283f922a8728c22663417' combination.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -736,22 +792,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>cc60bcb3640d62693b005ef5971af0e509564295</t>
+          <t>kokoroklo.su</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>domain correctly added</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Domains</t>
         </is>
       </c>
     </row>
@@ -761,12 +822,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>98f9affa5c661d9d3a074b17e92161b911f4fa05</t>
+          <t>fcb325d21d1100269731553015d6d0f85143dae2bfa6cbaf49ac6da29f1f732e</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -776,7 +837,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'fcb325d21d1100269731553015d6d0f85143dae2bfa6cbaf49ac6da29f1f732e' combination.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -791,17 +857,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>52bec4e0f052d3fbc4edebda7bab8c70</t>
+          <t>90ee378b87e7c35dd4a4272ee0bb9127</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -811,12 +882,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>c6a5356d1fa16e8e8bf70d376301798f52e90156</t>
+          <t>95e328a549247f900da5747f7e2057def121d2eda82cfd7e926a6955c797d317</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -826,7 +897,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '95e328a549247f900da5747f7e2057def121d2eda82cfd7e926a6955c797d317' combination.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -836,22 +912,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.mediafire.com/file/jjyy2npmnhx6o49/Start.htm/file</t>
+          <t>1d3217d7818e05db29f7c4437d41ea20f75978f67bc2b4419225542b190432fb</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
         </is>
       </c>
     </row>
@@ -861,22 +942,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8007BB9CAA6A1456FFC829270BE2E62D1905D5B71E9DC9F9673DEC9AFBF13BFC</t>
+          <t>59033839c1be695c83a68924979fab58</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Symbiote - liblinux[.]so.</t>
         </is>
       </c>
     </row>
@@ -891,17 +977,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a60de7510c8407b112b2708d47528b88</t>
+          <t>810ff49dcee175fa36f98e3446408918</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -911,22 +1002,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>vncgoga.duckdns.org</t>
+          <t>d3e69a33913507c80742a2d7a59c889efe7aa8f52beef8d172764e049e03ead5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
         </is>
       </c>
     </row>
@@ -936,24 +1032,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3D71A243E5D9BA44E3D71D4DA15D928658F92B2F0A220B7DEFE0136108871449</t>
+          <t>447c44e5a7f18e010ec2afae5b7c38992f8a93e7</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -961,22 +1058,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D71ADD25520799720ADD43A5F4925B796BEA11BF55644990B4B9A70B7EAEACBA</t>
+          <t>e4d63189f0b629f1cc4e908c61a0a6bb</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -991,7 +1093,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>fc6c62ba12f6d03ae4421fd4a3e7235a1c33eada</t>
+          <t>d316e5f375d39f3a76d7f41fe3e96471e67f36c4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1004,6 +1106,7 @@
           <t>Type Is Not Valid</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1011,22 +1114,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1f060da012beb4deeb96c5c68ef82c58</t>
+          <t>9122092980bc0ed9c9b008c5456cc18656c41798585b8819f1d6f2620cac3cf3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '9122092980bc0ed9c9b008c5456cc18656c41798585b8819f1d6f2620cac3cf3' combination.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1144,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ab203b50226f252c6b3ce2dd57b16c3a22033cd62a42076d09c9b104f67a3bc9</t>
+          <t>91c1facc4d1ae0255706d2f658e9296d</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1061,24 +1174,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mubbibun.duckdns.org</t>
+          <t>eb43350337138f2a77593c79cee1439217d02957</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1091,17 +1205,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>68eabe0477947e72c9cb3da64836de11bc07e95a</t>
+          <t>2939aa6223fed820eb925b8fe3859d71</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1111,24 +1230,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>090605df233b6dba07db48639c7766e7</t>
+          <t>dcf502ac7bf94fa5338c1550880b9b17d5116cd7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1141,17 +1261,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>70674c30ed3cf8fc1f8a2b9ecc2e15022f55ab9634d70ea3ba5e2e96cc1e00a0</t>
+          <t>f2fadd7a8b88da62228dab8981638b5c9f5512a57a0441b57c2b3a29b0a96012</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'f2fadd7a8b88da62228dab8981638b5c9f5512a57a0441b57c2b3a29b0a96012' combination.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1286,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>f4f9252eac23bbadcbd3cf1d1cada375cb839020ccb0a4e1c49c86a07ce40e1e</t>
+          <t>muelgadr.top</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>domain correctly added</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Domains</t>
         </is>
       </c>
     </row>
@@ -1186,24 +1316,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://taxmogalupupitpamobitola.blogspot.com/atom.xml</t>
+          <t>2d4d3986404110e8274ee19129238c170532c948</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1211,22 +1342,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3548938ab79c6d0233f6915ab3d0d1b4</t>
+          <t>5170461322cb1a79abb84feed75b7f871b6f1594562e7724c45d7bb98f97c86b</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '5170461322cb1a79abb84feed75b7f871b6f1594562e7724c45d7bb98f97c86b' combination.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1377,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>43a5cdd59258a17e65a0da07d8670fd2</t>
+          <t>7f7ac4787a90d970ad5bab9c300c2560</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1266,17 +1407,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>77006be837f5fc25fa2846f2c58c4bfe</t>
+          <t>0db094bad3872d9988c8645c14189833</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1432,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0a5627d2d8cafecb900860f2636aa387</t>
+          <t>74652eae27c9f5a5c397eacc76daf768b3e601f106e8539c7d855712ab185e40</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '74652eae27c9f5a5c397eacc76daf768b3e601f106e8539c7d855712ab185e40' combination.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1311,24 +1462,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>danseeeee.duckdns.org</t>
+          <t>191e499388d72bd5eb1b441bb11d61e7d1a42578</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1336,22 +1488,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>023ab72c6768fadf2cd9341cac61418f</t>
+          <t>0d6c3de5aebbbe85939d7588150edf7b7bdc712fceb6a83d79e65b6f79bfc2ef</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Black Basta ransomware - sample binary</t>
         </is>
       </c>
     </row>
@@ -1361,24 +1518,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8e711f38a80a396bd4dacef1dc9ff6c8e32b9b6d37075cea2bbef6973deb9e68</t>
+          <t>89900c9532f88bd58382ced3ee0bc86413e0fce0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1386,22 +1544,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4bd6e530db1c7ed7610398efa249f9c236d7863b40606d779519ac4ccb89767f</t>
+          <t>eb0c68e61639d191382e65ceec49c8c0</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1411,24 +1574,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>maraipasoo.duckdns.org</t>
+          <t>563b082e19594876e8b84f22cb49b0fc4eb66a25</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1436,22 +1600,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>f66e3490e871b3b57ca28ec161f1716a3f19ca90</t>
+          <t>7b92de68804d561ff749512bd35576ac</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1630,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>139e1b14d3062881849eb2dcfe10b96ee3acdbd1387de82e73da7d3d921ed806</t>
+          <t>d95a696af81f86a7e7f13cf32cfc3fe8</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1660,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>278912e12af8a3157ce2afaf89a897c8</t>
+          <t>501d971e548139153c64037d07b4e3fea2c1735a37774531c88cfa95ba660ec3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '501d971e548139153c64037d07b4e3fea2c1735a37774531c88cfa95ba660ec3' combination.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1690,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>a822e4814c499b7229291aa28f48e6a8f22a471a</t>
+          <t>5b7fbec223deb714dc7a4037348936a27d86b061cb2120213d5a69849cc9b588</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1526,7 +1705,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '5b7fbec223deb714dc7a4037348936a27d86b061cb2120213d5a69849cc9b588' combination.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1536,24 +1720,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5b01d4130fb3c6337cabad49410775ff</t>
+          <t>e3f76fb64c2818af7117d4f61bd083ccb8811760</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1566,7 +1751,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>54402f29db841f39ec8725ab69e01444d9c3903d</t>
+          <t>e24b528a4fde23f2838e02faf69a76e535e90d51</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1579,6 +1764,7 @@
           <t>Type Is Not Valid</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1586,22 +1772,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>ipv4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>6a8fd485e908d8ab9079cd8a5108874ca41bc254</t>
+          <t>23.106.160.188</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>ipv4 correctly added</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Black Basta ransomware - Cobalt Strike Command-and-Controller server</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1802,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://taxfile.mediafire.com/file/6hxdxdkgeyq0z1o/APRL27.htm/file</t>
+          <t>6c9fd23d88239d819e0b494e589b665c4e7921ed9b9dd0bbd1610d71230bcf81</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '6c9fd23d88239d819e0b494e589b665c4e7921ed9b9dd0bbd1610d71230bcf81' combination.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1832,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>da6256d393f6c65d18e4effaad3de535</t>
+          <t>3b76c1ea19c57cd8ade962f97f40fb5b</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1862,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>c832903cddda716edbe76d3c41bea0a52001a91c</t>
+          <t>32f17040ddaf3477008d844c8eb98410</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Black Basta ransomware - sample binary</t>
         </is>
       </c>
     </row>
@@ -1686,22 +1892,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.mediafire.com/file/c3zcoq7ay6nql9i/back.htm/file</t>
+          <t>4b8627b5896a0656e801a95b16068f84660f1460a247e712651e0945eb4309cb</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '4b8627b5896a0656e801a95b16068f84660f1460a247e712651e0945eb4309cb' combination.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1711,22 +1922,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31ecbb74f86f94a3112d96a6d7a4f57af3f15bce</t>
+          <t>74be899bef42712ce3d5707eb4f33623</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1952,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9781e3c43bac13f395934a50940de757ec3aa720</t>
+          <t>9f7124303f1c957f7e02f275f3501cbaa6e0645a6d78b50617a97761dc611cff</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1751,7 +1967,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '9f7124303f1c957f7e02f275f3501cbaa6e0645a6d78b50617a97761dc611cff' combination.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1766,17 +1987,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6a7242683122a3d4507bb0f0b6e7abf8acef4b5ab8ecf11c4b0ebdbded83e7aa</t>
+          <t>0d55564a2bed4ff06bc8b1daab98e2032c39536daa31878e16fed29bc987a4d1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '0d55564a2bed4ff06bc8b1daab98e2032c39536daa31878e16fed29bc987a4d1' combination.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1786,22 +2012,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31a9c513a5292912720a4bcc6bd4918fc7afcd4a0b60ef9822f5c7bd861c19b8</t>
+          <t>9bef40c0f63ed916cadd8c8bb39e3c5b</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1811,22 +2042,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>d2559403d732b5890bbf148de7e58052c0258970</t>
+          <t>dc1aafc01b5068eef6c2ed4cfd6864ed</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black Basta ransomware - Batch script which enabled RDP on the host (rdp.bat)  </t>
         </is>
       </c>
     </row>
@@ -1836,22 +2072,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sha256</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>cdf2c0c68b5f8f20af448142fd89f5980c9570033fe2e9793a15fdfdadac1281</t>
+          <t>6eeb4d8cd43879a7b8fb4cf2a2753106</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
         </is>
       </c>
     </row>
@@ -1866,17 +2107,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6f6bfac532c5f94e01b4b3e2c4347c83</t>
+          <t>fbeb26c04ef0c052a25796ec90163e72</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1891,17 +2137,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>7a2a5da50e87bb413375ecf12b0be71aea4e21120c0c2447d678ef73c88b3ba0</t>
+          <t>39c955c9e906075c11948edd79ffc6d6fcc5b5e3ac336231f52c3b03e718371e</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
         </is>
       </c>
     </row>
@@ -1911,24 +2162,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ipv4</t>
+          <t>sha1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>80.94.92.38</t>
+          <t>446b91c9f3aa4dc52dcc895959c2dba77ba4d929</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1936,22 +2188,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>13a67493bd2a212bc47f336cf9804d40</t>
+          <t>f47514c680135c7d4285f2284d5621245463f55a901c38f171dce445695ac533</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'f47514c680135c7d4285f2284d5621245463f55a901c38f171dce445695ac533' combination.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1961,22 +2218,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7995017c03440c9096d48b787565b9d7</t>
+          <t>ca61de1e2442c16c280eb7264d6b7f79ec92cdc10d1c202efb028da5f242f83a</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>IOC Malformed</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Warning: Duplicate type: 'sha256' and value: 'ca61de1e2442c16c280eb7264d6b7f79ec92cdc10d1c202efb028da5f242f83a' combination.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2248,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>md5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>6d85193dd5673d49b00768527a6849545f20416a</t>
+          <t>0e04f8efe7ece4af94b316aa0a8fe66a</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2001,7 +2263,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>Warning: Duplicate type: 'md5' and value: '0e04f8efe7ece4af94b316aa0a8fe66a' combination.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2278,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>sha256</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4abd3ba24edb3775642e76ae49215293af402ba4</t>
+          <t>68617985e8ab455316c18172723fbd2748de58008714c4cb3f7c6f19d326f135</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2026,7 +2293,2994 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Type Is Not Valid</t>
+          <t>Warning: Duplicate type: 'sha256' and value: '68617985e8ab455316c18172723fbd2748de58008714c4cb3f7c6f19d326f135' combination.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ac49c114ef137cc198786ad8daefa9cfcc01f0c0a827b0e2b927a7edd0fca8b0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black Basta ransomware - Batch script which enabled RDP on the host (rdp.bat)  </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>d19c5e1fb2d895ff61c0ff89cd0fc1a0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>924ee3a36f92cf95c5d6da75a15b5b9426bdb028</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>920fe42b1bd69804080f904f0426ed784a8ebbc2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>c8e40ff567a4e44c90b01c73f30d32a7278d359d</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>073ff84ac64f9582e2371b25ed14a95c8b4793c6</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>00fd57b32a3df737c274d2184663de4edc22a4e003419c1b10b262e66995ee23</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '00fd57b32a3df737c274d2184663de4edc22a4e003419c1b10b262e66995ee23' combination.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>43e96110f420169b71d38f2033fadc6b724cd601</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>c1f85df79b1da74e85aa2fb673d945e53ee8adf5</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>9d72815d96c32642f5f41cee14bb3f7166738fb7</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0616c2c814a485312a36646d0bcff756c1207795</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>99df2cc2535c82b84ba23384df290d7506242532123d8414c1cfc61967072c28</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '99df2cc2535c82b84ba23384df290d7506242532123d8414c1cfc61967072c28' combination.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0e04f8efe7ece4af94b316aa0a8fe66a</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6eefce6e0b2c458abf2665663cb73c2b</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>702f7104bd7242c73928b0a3e41cb81b</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>08e427c92010a8a282c894cf5a77a874e09c08e283a66f1905c131871cc4d273</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>6c9a9eae5aaa0081b51d4adfb5061b8bf266d774</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1b870154cc48b8a449c0512f491d2633490116e0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>748352146ab86ea1a32dfed0b0d5fac0efc52728bccd79476b74fb73517efb21</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '748352146ab86ea1a32dfed0b0d5fac0efc52728bccd79476b74fb73517efb21' combination.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>939863285773b17623f0f027faae8b994bf5fc1afb182c63a026431c71cd3885</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '939863285773b17623f0f027faae8b994bf5fc1afb182c63a026431c71cd3885' combination.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>32b15e5d5a507f0b8096fdea8e8df03c</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>c32f07a99bcb51308ead89e112040e3f</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>7db7406e6d3dafcef9cb63c53c1e44c7408e8ca3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>d8aec5539973927eb07a23ba4de3780d28c2dd2d6dbbc697562a44b30cd3b03f</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'd8aec5539973927eb07a23ba4de3780d28c2dd2d6dbbc697562a44b30cd3b03f' combination.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ea11ca6ef95f664a607ddc0808872df15574c3c6</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>34021bd407ee0b66f4e04f47deb9d664e8694225</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4c1dd6a893f86a150e003118148c655044d06e8300678cf6bf3cc3107b91b66c</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '4c1dd6a893f86a150e003118148c655044d06e8300678cf6bf3cc3107b91b66c' combination.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0c278f60cc4d36741e7e4d935fd2972f</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Symbiote - kerneldev[.]so[.]bkp. Appears to be an early development build.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0224b906741f248d8bcedaef423b58ffb1b4577ec06711293f7065b12ae71788</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '0224b906741f248d8bcedaef423b58ffb1b4577ec06711293f7065b12ae71788' combination.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>bfcb5f9e47d48b79bbca7a3680caa0e1e958a7dd</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>a6a0ac2c0b36e337235ff2fd8093b14a0a39b789</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ec231f8358d806240fa7781df4e13c34c0ae0716</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>b51b9607636f744a4a37eeed43997d72</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>f690f484c1883571a8bbf19313025a1264d3e10f570380f7aca3cc92135e1d2e</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>45eacba032367db7f3b031e5d9df10b30d01664f24da6847322f6af1fd8e7f01</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Symbiote - certbotx64[.] dnscat2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>a8eed171fdcb2a872865620fc2234e0b07201d927abcb65344846f6d4a7b75f5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'a8eed171fdcb2a872865620fc2234e0b07201d927abcb65344846f6d4a7b75f5' combination.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>c61a92c649f9f34d9f1b4d8f87a04a48</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>6a14951289df7576a6e188fa2a1606ee</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ec0d342a4a33b3a4bfec3b1239245f3aa704b472</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>e4b86c207f002748f9fd6dd1358ea06d138b4936</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>c86a477579188305132dab40700d06fff9e26b5ce627233fb9d20da1dfc74b47</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'c86a477579188305132dab40700d06fff9e26b5ce627233fb9d20da1dfc74b47' combination.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>3af6ece8ce067986173c48ca3164982acde284a7</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>462db6506076e6085a47539b80dbb15050addf22</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>966b6fd10d2d59d74d2a22bf7c584114</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>9ef6f9eaed5457fa2f86ac73db8f9c07</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>16720d1f52e77783c28645a02640756c</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ee74d6abcf43674b1814c9c7dee76d70</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>975d488ce835b4952ccf5c551a80445d</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>16851d915aaddf29fa2069b79d50fe3a81ecaafd28cde5b77cb531fe5a4e6742</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>5e932751c4dea799d69e1b4f02291dc6b06200dd4562b7ae1b6ac96693165cea</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>bad1e9ff9d16fa4d2b8d1cc3346df2cab99d825f</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>4a2e76b57de10c687716a1d7a295910cc5c0d04f5d10d4f4c53ae1bde45a251c</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '4a2e76b57de10c687716a1d7a295910cc5c0d04f5d10d4f4c53ae1bde45a251c' combination.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>e73733921a7386df8f0130aa8de8a8e3a24290d3</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>c6c080a63dd038d11cd6e724d2de31108cabe7b6e38f674fe8189696886582af</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'c6c080a63dd038d11cd6e724d2de31108cabe7b6e38f674fe8189696886582af' combination.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>b89c896e832bc9e9538cc62963c02f68</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>d9fb0690d91f49a6637051299ad419fc</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1359921c131315c9bdb8a1aa844a76373221ad2a</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>fdabb1f5b7691f03b2d89feb8b0d4e3fd036f9b4e718269cad8741c7e4d14072</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'fdabb1f5b7691f03b2d89feb8b0d4e3fd036f9b4e718269cad8741c7e4d14072' combination.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2bd84ed774ef2a9c789fc5f27cebe1a115fcc1e0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>b363e038a6d6326e07a02e7ff99d82852f8ec2d2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>fd799d99f7e84436f8af16d94ee7b2f1d08ca3cee746e1cf9b36e2139d676e4c</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'fd799d99f7e84436f8af16d94ee7b2f1d08ca3cee746e1cf9b36e2139d676e4c' combination.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>f287e247da2f4c6d5ebda76c786be57379d0f77c</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>a0d1e1ec8207c83c7d2d52ff65f0e159</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Symbiote - certbotx64[.] dnscat2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1c200564a0c115cdc68030dde6f2c10310f5b41a</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>fe776ac064d8f52365d4406460b7fcf18ceb72ed</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>3f8f426ae66c23865ee0f5dff801c841</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>6cd2a93c20957124f5878204ec3ed726</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>87bb1d7e3639be2b21df8a7a273b60c8</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Symbiote - mt64_[.]so. Missing credential exfiltration over DNS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>f55af21f69a183fb8550ac60f392b05df14aa01d7ffe9f28bc48a118dc110b4c</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Symbiote - mt64_[.]so. Missing credential exfiltration over DNS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>235720bec0797367013cbdc1fe9bbdde1c5d325235920a1a3e9499485fb72dba</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>03758b8976eeb4f79d1372884109c4198de6eed1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>182e3bb9392db6036185ac2316bb8092</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>cbb8cf94ffd1369e885652c94d7cb1696875f90b</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3e85293c49c7fc9d470a41e6c40dfd521c1aa109</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>444da2de6427e49aadedff7c9d2a7e1103a90909</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>aa03310efdf78e0b3c5790eab059dadee99f1bc4</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>afa40c3157f2704aba4838a7308b53a4853176af86982ce2999aa4df3ac7bb9c</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'afa40c3157f2704aba4838a7308b53a4853176af86982ce2999aa4df3ac7bb9c' combination.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>e74375e40d1538efee6ec6de3d617cbda2a39d9c</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>b67120f25963d36560cbb86b35e864f608536abef7c3377f46997d65bad13caa</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'b67120f25963d36560cbb86b35e864f608536abef7c3377f46997d65bad13caa' combination.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1a151a44255b704d2f0b6fd6b0f22299</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>134d0b10bac1404fa1da83c96c08e0882500819daad5f49e9e83c92f2a624b3e</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '134d0b10bac1404fa1da83c96c08e0882500819daad5f49e9e83c92f2a624b3e' combination.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>acc057130591670a0b47357b313027f810b3b813</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>fc2b1836b1cf905bb8e76a5f0c6b2613</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ec67bbdf55d3679fca72d3c814186ff4646dd779a862999c82c6faa8e6615180</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Symbiote - search[.]so. First sample with credential exfiltration of DNS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>a0cd554c35dee3fed3d1607dc18debd1296faaee29b5bd77ff83ab6956a6f9d6</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Symbiote - liblinux[.]so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>fa008acb8bbf7e3e0763170e94be73362918e006</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>47771f8332163f744f091c5d6fbfa6c6</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>85a0fa3cc64d1072d885438fbe470b10</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>d8159d294aa3fe0e634fc91057a615789b0b06d4</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3b921313066b1a28cd647b92ee43fb72d9abe5d4</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>f749af29b8c961c717902f109aecdf7a3ca0edbe</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>121157e0fcb728eb8a23b55457e89d45d76aa3b7d01d3d49105890a00662c924</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>sha256 correctly added</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Symbiote - kerneldev[.]so[.]bkp. Appears to be an early development build.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>c24266cc16d65f0b8d72bb7df80a6b2ffe343429a764afb9fb0a9c20d53ab9af</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: 'c24266cc16d65f0b8d72bb7df80a6b2ffe343429a764afb9fb0a9c20d53ab9af' combination.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4d8ebed6943ff05118baf30be9515b83</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Symbiote - search[.]so. First sample with credential exfiltration of DNS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3000ec9114870e174d544c11a240b5d7</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>68a48e9260ab6a413444f7566c4341fd6bff7cf1</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>e6b33ddaa9583216013b112b00317d0a</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - DLLs</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2db3d16e279eefa9aaa567d1157d458c</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>853c8a814279422abd0dded0e001011401b12826</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>65a650dd353ea767ef68cf4627436977e6d55102d699b2e8b8de491da5c0a5eb</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '65a650dd353ea767ef68cf4627436977e6d55102d699b2e8b8de491da5c0a5eb' combination.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>a5beaa74fd3e292222800dc43bdae959</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>391d134b792fb660426f183755ad00dbd737f521cff1f9a12d402cd714d34645</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '391d134b792fb660426f183755ad00dbd737f521cff1f9a12d402cd714d34645' combination.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>sha1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>34021bd407ee0b66f4e04f47deb9d664e8694225</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Type Is Not Valid</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>5b3b54d9caea61ca2e91a3234b0fdec5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>md5 correctly added</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>50fbe350cc660361b919f5e464da6d6170f35ef497327ae5defc7805e76d5568</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Warning: Duplicate type: 'sha256' and value: '50fbe350cc660361b919f5e464da6d6170f35ef497327ae5defc7805e76d5568' combination.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>SVCReady Malware - Documents</t>
         </is>
       </c>
     </row>
